--- a/exercises/excercises/ex001.Interpolation.xlsx
+++ b/exercises/excercises/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CCF2D2-07F4-4359-B22B-43B182CEC62C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12489312-8930-4856-8AFD-878AA42D2925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2955" windowWidth="28770" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -1117,604 +1117,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0725</c:v>
+                  <c:v>1.0329638836384571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.145</c:v>
+                  <c:v>1.0689019498307009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2175</c:v>
+                  <c:v>1.1078141985767314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.29</c:v>
+                  <c:v>1.1497006298765484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3625</c:v>
+                  <c:v>1.194561243730152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.2423960401375422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5075000000000001</c:v>
+                  <c:v>1.2932050190987192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.58</c:v>
+                  <c:v>1.3469881806136828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6525000000000001</c:v>
+                  <c:v>1.4037455246824329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.4634770513049695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7975000000000001</c:v>
+                  <c:v>1.526182760481293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.87</c:v>
+                  <c:v>1.591862652211403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9425000000000001</c:v>
+                  <c:v>1.6605167264952996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>1.7321449833329829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0875000000000004</c:v>
+                  <c:v>1.8067474227244527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.16</c:v>
+                  <c:v>1.8843240446697092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2324999999999999</c:v>
+                  <c:v>1.9648748491687524</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.0483998362215821</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3775000000000004</c:v>
+                  <c:v>2.1348990058281982</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.2243723579886012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5225</c:v>
+                  <c:v>2.3168198927027905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5949999999999998</c:v>
+                  <c:v>2.4122416099707666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6674999999999995</c:v>
+                  <c:v>2.5106375097925291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7399999999999993</c:v>
+                  <c:v>2.6120075921680783</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8124999999999991</c:v>
+                  <c:v>2.7163518570974139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8849999999999989</c:v>
+                  <c:v>2.8236703045805362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9574999999999987</c:v>
+                  <c:v>2.9339629346174454</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0599999999999969</c:v>
+                  <c:v>3.047233830795598</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2049999999999965</c:v>
+                  <c:v>3.1636336155766589</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3499999999999961</c:v>
+                  <c:v>3.2834964932556381</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4949999999999957</c:v>
+                  <c:v>3.4071682784661905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6399999999999952</c:v>
+                  <c:v>3.5349947858419695</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.7849999999999948</c:v>
+                  <c:v>3.6673218300166295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9299999999999944</c:v>
+                  <c:v>3.8044952256238247</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.074999999999994</c:v>
+                  <c:v>3.9468607872972097</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2199999999999935</c:v>
+                  <c:v>4.094764329670439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3649999999999931</c:v>
+                  <c:v>4.2485516673771651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.5099999999999927</c:v>
+                  <c:v>4.4085686150510446</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6549999999999923</c:v>
+                  <c:v>4.57516098732573</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.7999999999999918</c:v>
+                  <c:v>4.7486745988348762</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9449999999999914</c:v>
+                  <c:v>4.9294552642121374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0562499999999941</c:v>
+                  <c:v>5.1178106286036309</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1468749999999943</c:v>
+                  <c:v>5.3135215105266536</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.2374999999999936</c:v>
+                  <c:v>5.5159847036612746</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.3281249999999938</c:v>
+                  <c:v>5.7245882905099377</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4187499999999931</c:v>
+                  <c:v>5.9387203535750865</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5093749999999932</c:v>
+                  <c:v>6.1577689753591649</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5999999999999925</c:v>
+                  <c:v>6.3811222383646165</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.6906249999999927</c:v>
+                  <c:v>6.608168225093884</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.781249999999992</c:v>
+                  <c:v>6.8382950180494113</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8718749999999922</c:v>
+                  <c:v>7.0708906997336429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9624999999999915</c:v>
+                  <c:v>7.3053433526490217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0531249999999917</c:v>
+                  <c:v>7.5410410592979913</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1437499999999909</c:v>
+                  <c:v>7.7773719021829963</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.2343749999999911</c:v>
+                  <c:v>8.0137239638064788</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3249999999999904</c:v>
+                  <c:v>8.2494853266708841</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.4156249999999906</c:v>
+                  <c:v>8.4840440732786533</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.5062499999999899</c:v>
+                  <c:v>8.7167882861322319</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.5968749999999901</c:v>
+                  <c:v>8.9471060477340636</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6874999999999893</c:v>
+                  <c:v>9.1743854405865921</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.7781249999999895</c:v>
+                  <c:v>9.3980145471922594</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.8687499999999888</c:v>
+                  <c:v>9.6173814500535126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.959374999999989</c:v>
+                  <c:v>9.8318742316727903</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0499999999999883</c:v>
+                  <c:v>10.04088097455254</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1406249999999885</c:v>
+                  <c:v>10.243789761195204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.2312499999999877</c:v>
+                  <c:v>10.439988674103226</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.3218749999999879</c:v>
+                  <c:v>10.628865795779051</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.4124999999999872</c:v>
+                  <c:v>10.809809208725119</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5031249999999874</c:v>
+                  <c:v>10.982206995443876</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.5937499999999867</c:v>
+                  <c:v>11.145447238437768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.6843749999999869</c:v>
+                  <c:v>11.298918020209234</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7749999999999861</c:v>
+                  <c:v>11.442007423260721</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.8656249999999863</c:v>
+                  <c:v>11.57410353009467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.9562499999999856</c:v>
+                  <c:v>11.694594423213527</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0468749999999858</c:v>
+                  <c:v>11.802868185119735</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.1374999999999851</c:v>
+                  <c:v>11.898312898315735</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.2281249999999844</c:v>
+                  <c:v>11.980316645303976</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3187499999999854</c:v>
+                  <c:v>12.048267508586896</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4093749999999847</c:v>
+                  <c:v>12.101553570666942</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.499999999999984</c:v>
+                  <c:v>12.139562914046557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5906249999999833</c:v>
+                  <c:v>12.161683621228185</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.6812499999999844</c:v>
+                  <c:v>12.167303774714268</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.7718749999999837</c:v>
+                  <c:v>12.15581145700725</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.8624999999999829</c:v>
+                  <c:v>12.126594750609575</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.9531249999999822</c:v>
+                  <c:v>12.079041738023689</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0437499999999833</c:v>
+                  <c:v>12.012540501752031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.1343749999999826</c:v>
+                  <c:v>11.92647912429705</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.2249999999999819</c:v>
+                  <c:v>11.820245688161183</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3156249999999812</c:v>
+                  <c:v>11.693228275846881</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.4062499999999822</c:v>
+                  <c:v>11.544814969856581</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.4968749999999815</c:v>
+                  <c:v>11.37439385269273</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.5874999999999808</c:v>
+                  <c:v>11.181353006857773</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.6781249999999801</c:v>
+                  <c:v>10.965080514854149</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.7687499999999812</c:v>
+                  <c:v>10.724964459184307</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8593749999999805</c:v>
+                  <c:v>10.460392922350687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9499999999999797</c:v>
+                  <c:v>10.170753986855733</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.8554776809986482</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.5152407606746774</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.1521469598380936</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>8.7683782145294451</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>8.3661164607892822</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>7.9475436346581487</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>7.514841672176594</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.0701925093851603</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>6.6157780823244048</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.1537803270348705</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>5.6863811795571042</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.2157625759316542</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>4.744106452199067</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.2735947443998912</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>3.8064093885746733</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.3447323207639612</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.8907454770083021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4466307933482434</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>2.0145702058243327</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.5967456504771178</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>1.1953390633471457</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.81253238047496423</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.45050753790112052</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>0.1114464716661622</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.20246888218936329</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.4890565876249085</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.74613470859992592</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.97152130907386824</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.1634187049278097</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.322364578409861</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.4497740833083195</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.5470639473073531</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.6156508980911302</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.6569516633438188</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.6723829707495874</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.6633615479926038</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.6313041227570364</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.5776274227270535</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.5037481755868232</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-1.4110831090205136</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-1.3010489507122929</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-1.1750624283463296</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-1.0345402696067914</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.88089920217784667</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.71555595374366376</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.53992725198841074</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.35542982459625583</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.16348039925136718</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>3.450482785419854E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.23727465268749584</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.44397577172176095</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.65381366020580878</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.86599379338845439</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0797216465185127</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2942026948447987</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.5086424136161274</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.7222462780813137</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9342197634891725</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1437683450885188</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3500974981281679</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.5524126978569344</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.7499194195236334</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>2.9418231383770799</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.1273293296660891</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3056434686394751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.4759710305460541</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.6375174906346399</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.7894883241540485</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9310890063530941</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0615498493447859</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1807214623048408</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.2891032903320347</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.3872253267819445</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.4756175650101433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.5548099983722059</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.6253326202237091</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.6877154239202268</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.742488402817334</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.7901815502706064</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.8313248596356182</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.866448324267945</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.896081937523161</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.9207556927568419</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.9409995833245617</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.9573436025818971</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.9703177438844222</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9804520005877118</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.9882763660473417</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9943208336188851</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9991153966579196</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0031459820067177</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0065655276661953</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.009374815946444</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0115738468474618</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0131626203692496</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0141411365118085</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0145093952751374</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0142673966592364</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0134151406641054</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0119526272897446</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0098798565361538</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.007196828403333</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0039035428912824</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,604 +2821,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0725</c:v>
+                  <c:v>1.0329638836384571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.145</c:v>
+                  <c:v>1.0689019498307009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2175</c:v>
+                  <c:v>1.1078141985767314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.29</c:v>
+                  <c:v>1.1497006298765484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3625</c:v>
+                  <c:v>1.194561243730152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.2423960401375422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5075000000000001</c:v>
+                  <c:v>1.2932050190987192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.58</c:v>
+                  <c:v>1.3469881806136828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6525000000000001</c:v>
+                  <c:v>1.4037455246824329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.4634770513049695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7975000000000001</c:v>
+                  <c:v>1.526182760481293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.87</c:v>
+                  <c:v>1.591862652211403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9425000000000001</c:v>
+                  <c:v>1.6605167264952996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>1.7321449833329829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0875000000000004</c:v>
+                  <c:v>1.8067474227244527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.16</c:v>
+                  <c:v>1.8843240446697092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2324999999999999</c:v>
+                  <c:v>1.9648748491687524</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.0483998362215821</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3775000000000004</c:v>
+                  <c:v>2.1348990058281982</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.2243723579886012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5225</c:v>
+                  <c:v>2.3168198927027905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5949999999999998</c:v>
+                  <c:v>2.4122416099707666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6674999999999995</c:v>
+                  <c:v>2.5106375097925291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7399999999999993</c:v>
+                  <c:v>2.6120075921680783</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8124999999999991</c:v>
+                  <c:v>2.7163518570974139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8849999999999989</c:v>
+                  <c:v>2.8236703045805362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9574999999999987</c:v>
+                  <c:v>2.9339629346174454</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0599999999999969</c:v>
+                  <c:v>3.047233830795598</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2049999999999965</c:v>
+                  <c:v>3.1636336155766589</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3499999999999961</c:v>
+                  <c:v>3.2834964932556381</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4949999999999957</c:v>
+                  <c:v>3.4071682784661905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6399999999999952</c:v>
+                  <c:v>3.5349947858419695</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.7849999999999948</c:v>
+                  <c:v>3.6673218300166295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9299999999999944</c:v>
+                  <c:v>3.8044952256238247</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.074999999999994</c:v>
+                  <c:v>3.9468607872972097</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2199999999999935</c:v>
+                  <c:v>4.094764329670439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3649999999999931</c:v>
+                  <c:v>4.2485516673771651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.5099999999999927</c:v>
+                  <c:v>4.4085686150510446</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6549999999999923</c:v>
+                  <c:v>4.57516098732573</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.7999999999999918</c:v>
+                  <c:v>4.7486745988348762</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9449999999999914</c:v>
+                  <c:v>4.9294552642121374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0562499999999941</c:v>
+                  <c:v>5.1178106286036309</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1468749999999943</c:v>
+                  <c:v>5.3135215105266536</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.2374999999999936</c:v>
+                  <c:v>5.5159847036612746</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.3281249999999938</c:v>
+                  <c:v>5.7245882905099377</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4187499999999931</c:v>
+                  <c:v>5.9387203535750865</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5093749999999932</c:v>
+                  <c:v>6.1577689753591649</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5999999999999925</c:v>
+                  <c:v>6.3811222383646165</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.6906249999999927</c:v>
+                  <c:v>6.608168225093884</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.781249999999992</c:v>
+                  <c:v>6.8382950180494113</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8718749999999922</c:v>
+                  <c:v>7.0708906997336429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9624999999999915</c:v>
+                  <c:v>7.3053433526490217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0531249999999917</c:v>
+                  <c:v>7.5410410592979913</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1437499999999909</c:v>
+                  <c:v>7.7773719021829963</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.2343749999999911</c:v>
+                  <c:v>8.0137239638064788</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3249999999999904</c:v>
+                  <c:v>8.2494853266708841</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.4156249999999906</c:v>
+                  <c:v>8.4840440732786533</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.5062499999999899</c:v>
+                  <c:v>8.7167882861322319</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.5968749999999901</c:v>
+                  <c:v>8.9471060477340636</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6874999999999893</c:v>
+                  <c:v>9.1743854405865921</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.7781249999999895</c:v>
+                  <c:v>9.3980145471922594</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.8687499999999888</c:v>
+                  <c:v>9.6173814500535126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.959374999999989</c:v>
+                  <c:v>9.8318742316727903</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0499999999999883</c:v>
+                  <c:v>10.04088097455254</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1406249999999885</c:v>
+                  <c:v>10.243789761195204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.2312499999999877</c:v>
+                  <c:v>10.439988674103226</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.3218749999999879</c:v>
+                  <c:v>10.628865795779051</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.4124999999999872</c:v>
+                  <c:v>10.809809208725119</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5031249999999874</c:v>
+                  <c:v>10.982206995443876</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.5937499999999867</c:v>
+                  <c:v>11.145447238437768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.6843749999999869</c:v>
+                  <c:v>11.298918020209234</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7749999999999861</c:v>
+                  <c:v>11.442007423260721</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.8656249999999863</c:v>
+                  <c:v>11.57410353009467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.9562499999999856</c:v>
+                  <c:v>11.694594423213527</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0468749999999858</c:v>
+                  <c:v>11.802868185119735</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.1374999999999851</c:v>
+                  <c:v>11.898312898315735</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.2281249999999844</c:v>
+                  <c:v>11.980316645303976</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3187499999999854</c:v>
+                  <c:v>12.048267508586896</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4093749999999847</c:v>
+                  <c:v>12.101553570666942</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.499999999999984</c:v>
+                  <c:v>12.139562914046557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5906249999999833</c:v>
+                  <c:v>12.161683621228185</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.6812499999999844</c:v>
+                  <c:v>12.167303774714268</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.7718749999999837</c:v>
+                  <c:v>12.15581145700725</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.8624999999999829</c:v>
+                  <c:v>12.126594750609575</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.9531249999999822</c:v>
+                  <c:v>12.079041738023689</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0437499999999833</c:v>
+                  <c:v>12.012540501752031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.1343749999999826</c:v>
+                  <c:v>11.92647912429705</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.2249999999999819</c:v>
+                  <c:v>11.820245688161183</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3156249999999812</c:v>
+                  <c:v>11.693228275846881</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.4062499999999822</c:v>
+                  <c:v>11.544814969856581</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.4968749999999815</c:v>
+                  <c:v>11.37439385269273</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.5874999999999808</c:v>
+                  <c:v>11.181353006857773</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.6781249999999801</c:v>
+                  <c:v>10.965080514854149</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.7687499999999812</c:v>
+                  <c:v>10.724964459184307</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8593749999999805</c:v>
+                  <c:v>10.460392922350687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9499999999999797</c:v>
+                  <c:v>10.170753986855733</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.8554776809986482</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.5152407606746774</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.1521469598380936</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>8.7683782145294451</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>8.3661164607892822</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>7.9475436346581487</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>7.514841672176594</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.0701925093851603</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>6.6157780823244048</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.1537803270348705</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>5.6863811795571042</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.2157625759316542</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>4.744106452199067</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.2735947443998912</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>3.8064093885746733</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.3447323207639612</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.8907454770083021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4466307933482434</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>2.0145702058243327</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.5967456504771178</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>1.1953390633471457</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.81253238047496423</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.45050753790112052</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>0.1114464716661622</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.20246888218936329</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.4890565876249085</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.74613470859992592</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.97152130907386824</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.1634187049278097</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.322364578409861</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.4497740833083195</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.5470639473073531</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.6156508980911302</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.6569516633438188</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.6723829707495874</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.6633615479926038</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.6313041227570364</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.5776274227270535</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.5037481755868232</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-1.4110831090205136</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-1.3010489507122929</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-1.1750624283463296</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-1.0345402696067914</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.88089920217784667</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.71555595374366376</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.53992725198841074</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.35542982459625583</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.16348039925136718</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>3.450482785419854E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.23727465268749584</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.44397577172176095</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.65381366020580878</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.86599379338845439</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0797216465185127</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2942026948447987</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.5086424136161274</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.7222462780813137</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9342197634891725</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1437683450885188</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3500974981281679</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.5524126978569344</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.7499194195236334</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>2.9418231383770799</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.1273293296660891</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3056434686394751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.4759710305460541</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.6375174906346399</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.7894883241540485</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9310890063530941</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0615498493447859</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1807214623048408</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.2891032903320347</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.3872253267819445</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.4756175650101433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.5548099983722059</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.6253326202237091</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.6877154239202268</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.742488402817334</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.7901815502706064</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.8313248596356182</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.866448324267945</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.896081937523161</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.9207556927568419</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.9409995833245617</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.9573436025818971</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.9703177438844222</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9804520005877118</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.9882763660473417</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9943208336188851</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9991153966579196</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0031459820067177</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0065655276661953</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.009374815946444</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0115738468474618</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0131626203692496</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0141411365118085</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0145093952751374</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0142673966592364</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0134151406641054</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0119526272897446</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0098798565361538</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.007196828403333</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0039035428912824</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,7 +3492,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999999947</c:v>
+                  <c:v>4.7012525842493966</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -4611,604 +4611,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0725</c:v>
+                  <c:v>1.0329638836384571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.145</c:v>
+                  <c:v>1.0689019498307009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2175</c:v>
+                  <c:v>1.1078141985767314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.29</c:v>
+                  <c:v>1.1497006298765484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3625</c:v>
+                  <c:v>1.194561243730152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.2423960401375422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5075000000000001</c:v>
+                  <c:v>1.2932050190987192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.58</c:v>
+                  <c:v>1.3469881806136828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6525000000000001</c:v>
+                  <c:v>1.4037455246824329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.4634770513049695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7975000000000001</c:v>
+                  <c:v>1.526182760481293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.87</c:v>
+                  <c:v>1.591862652211403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9425000000000001</c:v>
+                  <c:v>1.6605167264952996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>1.7321449833329829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0875000000000004</c:v>
+                  <c:v>1.8067474227244527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.16</c:v>
+                  <c:v>1.8843240446697092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2324999999999999</c:v>
+                  <c:v>1.9648748491687524</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.0483998362215821</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3775000000000004</c:v>
+                  <c:v>2.1348990058281982</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.2243723579886012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5225</c:v>
+                  <c:v>2.3168198927027905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5949999999999998</c:v>
+                  <c:v>2.4122416099707666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6674999999999995</c:v>
+                  <c:v>2.5106375097925291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7399999999999993</c:v>
+                  <c:v>2.6120075921680783</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8124999999999991</c:v>
+                  <c:v>2.7163518570974139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8849999999999989</c:v>
+                  <c:v>2.8236703045805362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9574999999999987</c:v>
+                  <c:v>2.9339629346174454</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0599999999999969</c:v>
+                  <c:v>3.047233830795598</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2049999999999965</c:v>
+                  <c:v>3.1636336155766589</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3499999999999961</c:v>
+                  <c:v>3.2834964932556381</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4949999999999957</c:v>
+                  <c:v>3.4071682784661905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6399999999999952</c:v>
+                  <c:v>3.5349947858419695</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.7849999999999948</c:v>
+                  <c:v>3.6673218300166295</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9299999999999944</c:v>
+                  <c:v>3.8044952256238247</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.074999999999994</c:v>
+                  <c:v>3.9468607872972097</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2199999999999935</c:v>
+                  <c:v>4.094764329670439</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3649999999999931</c:v>
+                  <c:v>4.2485516673771651</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.5099999999999927</c:v>
+                  <c:v>4.4085686150510446</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6549999999999923</c:v>
+                  <c:v>4.57516098732573</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.7999999999999918</c:v>
+                  <c:v>4.7486745988348762</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.9449999999999914</c:v>
+                  <c:v>4.9294552642121374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.0562499999999941</c:v>
+                  <c:v>5.1178106286036309</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1468749999999943</c:v>
+                  <c:v>5.3135215105266536</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.2374999999999936</c:v>
+                  <c:v>5.5159847036612746</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.3281249999999938</c:v>
+                  <c:v>5.7245882905099377</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4187499999999931</c:v>
+                  <c:v>5.9387203535750865</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.5093749999999932</c:v>
+                  <c:v>6.1577689753591649</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5999999999999925</c:v>
+                  <c:v>6.3811222383646165</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.6906249999999927</c:v>
+                  <c:v>6.608168225093884</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.781249999999992</c:v>
+                  <c:v>6.8382950180494113</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8718749999999922</c:v>
+                  <c:v>7.0708906997336429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9624999999999915</c:v>
+                  <c:v>7.3053433526490217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0531249999999917</c:v>
+                  <c:v>7.5410410592979913</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1437499999999909</c:v>
+                  <c:v>7.7773719021829963</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.2343749999999911</c:v>
+                  <c:v>8.0137239638064788</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3249999999999904</c:v>
+                  <c:v>8.2494853266708841</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.4156249999999906</c:v>
+                  <c:v>8.4840440732786533</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.5062499999999899</c:v>
+                  <c:v>8.7167882861322319</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.5968749999999901</c:v>
+                  <c:v>8.9471060477340636</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6874999999999893</c:v>
+                  <c:v>9.1743854405865921</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.7781249999999895</c:v>
+                  <c:v>9.3980145471922594</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.8687499999999888</c:v>
+                  <c:v>9.6173814500535126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.959374999999989</c:v>
+                  <c:v>9.8318742316727903</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0499999999999883</c:v>
+                  <c:v>10.04088097455254</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1406249999999885</c:v>
+                  <c:v>10.243789761195204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.2312499999999877</c:v>
+                  <c:v>10.439988674103226</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.3218749999999879</c:v>
+                  <c:v>10.628865795779051</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.4124999999999872</c:v>
+                  <c:v>10.809809208725119</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.5031249999999874</c:v>
+                  <c:v>10.982206995443876</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.5937499999999867</c:v>
+                  <c:v>11.145447238437768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.6843749999999869</c:v>
+                  <c:v>11.298918020209234</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7749999999999861</c:v>
+                  <c:v>11.442007423260721</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.8656249999999863</c:v>
+                  <c:v>11.57410353009467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.9562499999999856</c:v>
+                  <c:v>11.694594423213527</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.0468749999999858</c:v>
+                  <c:v>11.802868185119735</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.1374999999999851</c:v>
+                  <c:v>11.898312898315735</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.2281249999999844</c:v>
+                  <c:v>11.980316645303976</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3187499999999854</c:v>
+                  <c:v>12.048267508586896</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4093749999999847</c:v>
+                  <c:v>12.101553570666942</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.499999999999984</c:v>
+                  <c:v>12.139562914046557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5906249999999833</c:v>
+                  <c:v>12.161683621228185</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.6812499999999844</c:v>
+                  <c:v>12.167303774714268</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.7718749999999837</c:v>
+                  <c:v>12.15581145700725</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.8624999999999829</c:v>
+                  <c:v>12.126594750609575</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.9531249999999822</c:v>
+                  <c:v>12.079041738023689</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0437499999999833</c:v>
+                  <c:v>12.012540501752031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.1343749999999826</c:v>
+                  <c:v>11.92647912429705</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.2249999999999819</c:v>
+                  <c:v>11.820245688161183</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3156249999999812</c:v>
+                  <c:v>11.693228275846881</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.4062499999999822</c:v>
+                  <c:v>11.544814969856581</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.4968749999999815</c:v>
+                  <c:v>11.37439385269273</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.5874999999999808</c:v>
+                  <c:v>11.181353006857773</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.6781249999999801</c:v>
+                  <c:v>10.965080514854149</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.7687499999999812</c:v>
+                  <c:v>10.724964459184307</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8593749999999805</c:v>
+                  <c:v>10.460392922350687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9499999999999797</c:v>
+                  <c:v>10.170753986855733</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.8554776809986482</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.5152407606746774</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.1521469598380936</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>8.7683782145294451</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>8.3661164607892822</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>7.9475436346581487</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>7.514841672176594</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.0701925093851603</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>6.6157780823244048</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.1537803270348705</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>5.6863811795571042</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.2157625759316542</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>4.744106452199067</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.2735947443998912</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>3.8064093885746733</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.3447323207639612</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.8907454770083021</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4466307933482434</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>2.0145702058243327</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.5967456504771178</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>1.1953390633471457</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.81253238047496423</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.45050753790112052</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>0.1114464716661622</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.20246888218936329</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.4890565876249085</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.74613470859992592</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.97152130907386824</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.1634187049278097</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.322364578409861</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.4497740833083195</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.5470639473073531</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.6156508980911302</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.6569516633438188</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.6723829707495874</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.6633615479926038</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.6313041227570364</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.5776274227270535</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.5037481755868232</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-1.4110831090205136</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-1.3010489507122929</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-1.1750624283463296</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-1.0345402696067914</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.88089920217784667</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.71555595374366376</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.53992725198841074</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.35542982459625583</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.16348039925136718</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>3.450482785419854E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.23727465268749584</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.44397577172176095</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.65381366020580878</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.86599379338845439</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0797216465185127</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2942026948447987</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.5086424136161274</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.7222462780813137</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9342197634891725</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1437683450885188</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3500974981281679</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.5524126978569344</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.7499194195236334</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>2.9418231383770799</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.1273293296660891</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3056434686394751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.4759710305460541</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.6375174906346399</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.7894883241540485</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9310890063530941</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0615498493447859</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1807214623048408</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.2891032903320347</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.3872253267819445</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.4756175650101433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.5548099983722059</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.6253326202237091</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.6877154239202268</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.742488402817334</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.7901815502706064</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.8313248596356182</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.866448324267945</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.896081937523161</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.9207556927568419</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.9409995833245617</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.9573436025818971</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.9703177438844222</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9804520005877118</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.9882763660473417</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9943208336188851</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9991153966579196</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0031459820067177</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0065655276661953</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.009374815946444</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0115738468474618</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0131626203692496</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0141411365118085</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0145093952751374</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0142673966592364</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0134151406641054</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0119526272897446</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0098798565361538</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.007196828403333</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0039035428912824</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,604 +5969,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.145</c:v>
+                  <c:v>1.2168934154046951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29</c:v>
+                  <c:v>1.4225474289401925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.6169620406064924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.58</c:v>
+                  <c:v>1.8001372504035946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.9720730583314994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.87</c:v>
+                  <c:v>2.1327694643902064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>2.2822264685797156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.16</c:v>
+                  <c:v>2.4204440709000274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.5474222713511416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.6631610699330581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5950000000000002</c:v>
+                  <c:v>2.7676604666457774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.74</c:v>
+                  <c:v>2.8609204614892985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8850000000000002</c:v>
+                  <c:v>2.9429410544636223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0089999999999999</c:v>
+                  <c:v>3.0137235102555056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0525000000000002</c:v>
+                  <c:v>3.0735150692709068</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0960000000000001</c:v>
+                  <c:v>3.1231012834918825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1395</c:v>
+                  <c:v>3.1633389430661012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1830000000000003</c:v>
+                  <c:v>3.1950848381412307</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2265000000000001</c:v>
+                  <c:v>3.2191957588649394</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.27</c:v>
+                  <c:v>3.2365284953848956</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3134999999999999</c:v>
+                  <c:v>3.2479398378487674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3569999999999998</c:v>
+                  <c:v>3.2542865764042235</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4004999999999996</c:v>
+                  <c:v>3.2564255011989318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4439999999999995</c:v>
+                  <c:v>3.2552134023805612</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4874999999999994</c:v>
+                  <c:v>3.2515070700967788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5309999999999993</c:v>
+                  <c:v>3.2461632944952541</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5744999999999991</c:v>
+                  <c:v>3.2400388657236543</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.617999999999999</c:v>
+                  <c:v>3.2339905739296486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6614999999999989</c:v>
+                  <c:v>3.2288752092609045</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7049999999999987</c:v>
+                  <c:v>3.2255495618650905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7484999999999986</c:v>
+                  <c:v>3.2248704218898752</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.7919999999999985</c:v>
+                  <c:v>3.2276945794829266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8354999999999984</c:v>
+                  <c:v>3.2348788247919127</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8789999999999982</c:v>
+                  <c:v>3.2472799479645023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.9224999999999981</c:v>
+                  <c:v>3.2657547391483632</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.965999999999998</c:v>
+                  <c:v>3.291159988491164</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0094999999999983</c:v>
+                  <c:v>3.3243524861405724</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0529999999999982</c:v>
+                  <c:v>3.3661890222442574</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.096499999999998</c:v>
+                  <c:v>3.4175263869498869</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1399999999999979</c:v>
+                  <c:v>3.4792213704051291</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.1834999999999978</c:v>
+                  <c:v>3.5521307627576526</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2269999999999976</c:v>
+                  <c:v>3.6371113541551252</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2704999999999975</c:v>
+                  <c:v>3.7350199347452153</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3139999999999974</c:v>
+                  <c:v>3.8467132946755913</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.3574999999999973</c:v>
+                  <c:v>3.9730482240939216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.4009999999999971</c:v>
+                  <c:v>4.114881513147874</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.444499999999997</c:v>
+                  <c:v>4.273069951985117</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4879999999999969</c:v>
+                  <c:v>4.4484703307533193</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6924999999999777</c:v>
+                  <c:v>4.6417851204921385</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9583333333333108</c:v>
+                  <c:v>4.8522511523034257</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.2241666666666431</c:v>
+                  <c:v>5.0782953360877778</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.4899999999999753</c:v>
+                  <c:v>5.3183360501203412</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.7558333333333085</c:v>
+                  <c:v>5.5707916726762647</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.0216666666666407</c:v>
+                  <c:v>5.8340805820306931</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.287499999999973</c:v>
+                  <c:v>6.1066211564587745</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.5533333333333061</c:v>
+                  <c:v>6.3868317742356551</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.8191666666666384</c:v>
+                  <c:v>6.6731308136364822</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.0849999999999707</c:v>
+                  <c:v>6.9639366529364031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.3508333333333038</c:v>
+                  <c:v>7.257667670410564</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.6166666666666361</c:v>
+                  <c:v>7.5527422443341123</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.8824999999999683</c:v>
+                  <c:v>7.8475787529821952</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1483333333333015</c:v>
+                  <c:v>8.140595574629959</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4141666666666328</c:v>
+                  <c:v>8.43021108755255</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.679999999999966</c:v>
+                  <c:v>8.7148436700251164</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.9458333333332991</c:v>
+                  <c:v>8.9929117003228054</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.2116666666666305</c:v>
+                  <c:v>9.2628335567207625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.4774999999999636</c:v>
+                  <c:v>9.5230276174941348</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.7433333333332968</c:v>
+                  <c:v>9.7719122609180697</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.006249999999975</c:v>
+                  <c:v>10.007905884190327</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.187499999999973</c:v>
+                  <c:v>10.229937719369381</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.368749999999974</c:v>
+                  <c:v>10.438779777181308</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.549999999999972</c:v>
+                  <c:v>10.635619457552895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.731249999999973</c:v>
+                  <c:v>10.821644160410932</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.912499999999971</c:v>
+                  <c:v>10.998041285682204</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.093749999999972</c:v>
+                  <c:v>11.1659982332935</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.27499999999997</c:v>
+                  <c:v>11.326702403171609</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.456249999999971</c:v>
+                  <c:v>11.481341195243317</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.637499999999969</c:v>
+                  <c:v>11.631102009435415</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.818749999999969</c:v>
+                  <c:v>11.777172245674686</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.999999999999968</c:v>
+                  <c:v>11.920739303887922</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.181249999999968</c:v>
+                  <c:v>12.062990584001909</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.362499999999967</c:v>
+                  <c:v>12.205113485943434</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.543749999999967</c:v>
+                  <c:v>12.348295409639288</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.724999999999966</c:v>
+                  <c:v>12.493723755016255</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.906249999999966</c:v>
+                  <c:v>12.642585922001127</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.087499999999965</c:v>
+                  <c:v>12.796069310520688</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.268749999999965</c:v>
+                  <c:v>12.955361320501728</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.449999999999964</c:v>
+                  <c:v>13.121649351871033</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.631249999999964</c:v>
+                  <c:v>13.296120804555393</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.812499999999963</c:v>
+                  <c:v>13.479963078481596</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.993749999999963</c:v>
+                  <c:v>13.674363573576427</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.174999999999962</c:v>
+                  <c:v>13.880509689766676</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.356249999999962</c:v>
+                  <c:v>14.099588826979131</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.537499999999961</c:v>
+                  <c:v>14.33278838514058</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.718749999999961</c:v>
+                  <c:v>14.58129576417781</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.899999999999959</c:v>
+                  <c:v>14.846298364017608</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.108333333333279</c:v>
+                  <c:v>15.12891701587343</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.349999999999945</c:v>
+                  <c:v>15.428293972451359</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.591666666666612</c:v>
+                  <c:v>15.741306847311701</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>15.833333333333277</c:v>
+                  <c:v>16.064709145935645</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16.074999999999942</c:v>
+                  <c:v>16.395254373804381</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.31666666666661</c:v>
+                  <c:v>16.729696036399101</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.558333333333277</c:v>
+                  <c:v>17.064787639200993</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16.799999999999944</c:v>
+                  <c:v>17.397282687691249</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>17.041666666666611</c:v>
+                  <c:v>17.723934687351054</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17.283333333333275</c:v>
+                  <c:v>18.041497143661601</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17.524999999999942</c:v>
+                  <c:v>18.346723562104081</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>17.766666666666609</c:v>
+                  <c:v>18.636367448159685</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.008333333333272</c:v>
+                  <c:v>18.907182307309597</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.24999999999994</c:v>
+                  <c:v>19.155921645035011</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18.491666666666607</c:v>
+                  <c:v>19.379338966817119</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18.73333333333327</c:v>
+                  <c:v>19.574187778137109</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>18.974999999999937</c:v>
+                  <c:v>19.73722158447617</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19.216666666666605</c:v>
+                  <c:v>19.865193891315492</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>19.458333333333268</c:v>
+                  <c:v>19.954858204136269</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>19.699999999999935</c:v>
+                  <c:v>20.002968028419684</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>19.941666666666602</c:v>
+                  <c:v>20.006276869646932</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>19.685714285714401</c:v>
+                  <c:v>19.961923630734969</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>19.271428571428686</c:v>
+                  <c:v>19.870306841541773</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>18.857142857142971</c:v>
+                  <c:v>19.733464056857823</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>18.44285714285726</c:v>
+                  <c:v>19.553445246135567</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>18.028571428571546</c:v>
+                  <c:v>19.332300378827433</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>17.614285714285835</c:v>
+                  <c:v>19.072079424385869</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.20000000000012</c:v>
+                  <c:v>18.774832352263306</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>16.785714285714409</c:v>
+                  <c:v>18.442609131912189</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16.371428571428694</c:v>
+                  <c:v>18.077459732784948</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>15.957142857142982</c:v>
+                  <c:v>17.681434124334029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>15.542857142857269</c:v>
+                  <c:v>17.256582276011866</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>15.128571428571556</c:v>
+                  <c:v>16.804954157270899</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>14.714285714285841</c:v>
+                  <c:v>16.328599737563565</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>14.300000000000129</c:v>
+                  <c:v>15.829568986342302</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>13.885714285714416</c:v>
+                  <c:v>15.309911873059551</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>13.471428571428703</c:v>
+                  <c:v>14.771678367167748</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>13.05714285714299</c:v>
+                  <c:v>14.216918438119333</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.642857142857277</c:v>
+                  <c:v>13.647682055366742</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.228571428571563</c:v>
+                  <c:v>13.066019188362414</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>11.81428571428585</c:v>
+                  <c:v>12.473979806558789</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.400000000000137</c:v>
+                  <c:v>11.873613879408305</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.985714285714424</c:v>
+                  <c:v>11.266971376363399</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.571428571428712</c:v>
+                  <c:v>10.656102266876511</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10.157142857142999</c:v>
+                  <c:v>10.043056520400077</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>9.7428571428572859</c:v>
+                  <c:v>9.4298841063865364</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>9.3285714285715713</c:v>
+                  <c:v>8.8186349942883275</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.9142857142858585</c:v>
+                  <c:v>8.2113591535578898</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.5000000000001457</c:v>
+                  <c:v>7.6101065536476602</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.0857142857144328</c:v>
+                  <c:v>7.0169271640100774</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.67142857142872</c:v>
+                  <c:v>6.4338709540975794</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.2571428571430063</c:v>
+                  <c:v>5.8629878933626056</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.8428571428572935</c:v>
+                  <c:v>5.3063279512575932</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.4285714285715807</c:v>
+                  <c:v>4.7659410972349807</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.0142857142858679</c:v>
+                  <c:v>4.243877300747207</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5.6000000000001542</c:v>
+                  <c:v>3.7421865312467104</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5.1857142857144414</c:v>
+                  <c:v>3.2629187581859282</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>4.7714285714287286</c:v>
+                  <c:v>2.8081239510172997</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.3571428571430149</c:v>
+                  <c:v>2.3798520791932631</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.942857142857302</c:v>
+                  <c:v>1.9801531121662563</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.5285714285715888</c:v>
+                  <c:v>1.6110770193887178</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.114285714285876</c:v>
+                  <c:v>1.2746737703130862</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7000000000001627</c:v>
+                  <c:v>0.97299333439179936</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.2857142857144499</c:v>
+                  <c:v>0.70808568107729597</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.8714285714287366</c:v>
+                  <c:v>0.48200077982201417</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.4571428571430236</c:v>
+                  <c:v>0.29678860007839225</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.0428571428573106</c:v>
+                  <c:v>0.15449911129886867</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.62857142857159742</c:v>
+                  <c:v>5.7182282935881651E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.21428571428588439</c:v>
+                  <c:v>6.8880844418695367E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.11666666666656648</c:v>
+                  <c:v>5.5553692615704642E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.35833333333323247</c:v>
+                  <c:v>5.2347884745025143E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.59999999999989839</c:v>
+                  <c:v>0.14352659402357343</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.84166666666656442</c:v>
+                  <c:v>0.27521579239838007</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.0833333333332305</c:v>
+                  <c:v>0.44353977517060988</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.3249999999998963</c:v>
+                  <c:v>0.64462283764142769</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.5666666666665623</c:v>
+                  <c:v>0.87458927511199813</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.8083333333332283</c:v>
+                  <c:v>1.1295633828834861</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.0499999999998941</c:v>
+                  <c:v>1.4056694562570562</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.2916666666665604</c:v>
+                  <c:v>1.6990317905338734</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5333333333332262</c:v>
+                  <c:v>2.0057746810151027</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.774999999999892</c:v>
+                  <c:v>2.3220224230019082</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.0166666666665582</c:v>
+                  <c:v>2.643899311795455</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.2583333333332241</c:v>
+                  <c:v>2.967529642696908</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.4999999999998899</c:v>
+                  <c:v>3.289037711007432</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.7416666666665561</c:v>
+                  <c:v>3.6045478120281915</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.9833333333332219</c:v>
+                  <c:v>3.9101842410603518</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.2249999999998877</c:v>
+                  <c:v>4.2020712934050772</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.466666666666554</c:v>
+                  <c:v>4.4763332643635323</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.7083333333332202</c:v>
+                  <c:v>4.7290944492368823</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9499999999998856</c:v>
+                  <c:v>4.956479143326292</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.1549338889778413</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.3233402900408207</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.4616926256833329</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.5699908959053772</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.6482351007069544</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.6964252400880637</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.7145613140487059</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.7026433225888802</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.6606712657085865</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.5886451434078257</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.486564955686597</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.3544307025449012</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.1922423839827374</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000001066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,13 +6643,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8571428571428572</c:v>
+                  <c:v>3.2403432876744693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2068965517241388</c:v>
+                  <c:v>6.0231011834711934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7272727272727231</c:v>
+                  <c:v>0.99174486076679491</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -8600,7 +8600,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$Q$1" fmlaRange="$Q$2:$Q$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$Q$1" fmlaRange="$Q$2:$Q$5" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9065,8 +9065,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AH230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9080,10 +9080,10 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.11</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -9511,7 +9511,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="15">
         <f>Q1-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -9634,11 +9634,11 @@
       </c>
       <c r="C22" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B22,тип_интерполяции_)</f>
-        <v>1.0725</v>
+        <v>1.0329638836384571</v>
       </c>
       <c r="D22" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B22,тип_интерполяции_)</f>
-        <v>1.145</v>
+        <v>1.2168934154046951</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="C23" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B23,тип_интерполяции_)</f>
-        <v>1.145</v>
+        <v>1.0689019498307009</v>
       </c>
       <c r="D23" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B23,тип_интерполяции_)</f>
-        <v>1.29</v>
+        <v>1.4225474289401925</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -9722,11 +9722,11 @@
       </c>
       <c r="C24" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B24,тип_интерполяции_)</f>
-        <v>1.2175</v>
+        <v>1.1078141985767314</v>
       </c>
       <c r="D24" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B24,тип_интерполяции_)</f>
-        <v>1.4350000000000001</v>
+        <v>1.6169620406064924</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -9794,11 +9794,11 @@
       </c>
       <c r="C25" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B25,тип_интерполяции_)</f>
-        <v>1.29</v>
+        <v>1.1497006298765484</v>
       </c>
       <c r="D25" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B25,тип_интерполяции_)</f>
-        <v>1.58</v>
+        <v>1.8001372504035946</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="S25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,S24,тип_интерполяции_)</f>
-        <v>4.9999999999999947</v>
+        <v>4.7012525842493966</v>
       </c>
       <c r="T25" s="13">
         <f>[1]!crv_interpolation(x_,fx_,T24,тип_интерполяции_)</f>
@@ -9843,15 +9843,15 @@
       </c>
       <c r="AC25" s="13">
         <f>[1]!crv_interpolation(x2_,gx2_,AC24,тип_интерполяции_)</f>
-        <v>3.8571428571428572</v>
+        <v>3.2403432876744693</v>
       </c>
       <c r="AD25" s="13">
         <f>[1]!crv_interpolation(x2_,gx2_,AD24,тип_интерполяции_)</f>
-        <v>6.2068965517241388</v>
+        <v>6.0231011834711934</v>
       </c>
       <c r="AE25" s="13">
         <f>[1]!crv_interpolation(x2_,gx2_,AE24,тип_интерполяции_)</f>
-        <v>2.7272727272727231</v>
+        <v>0.99174486076679491</v>
       </c>
       <c r="AF25" s="13">
         <f>[1]!crv_interpolation(x2_,gx2_,AF24,тип_интерполяции_)</f>
@@ -9871,11 +9871,11 @@
       </c>
       <c r="C26" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B26,тип_интерполяции_)</f>
-        <v>1.3625</v>
+        <v>1.194561243730152</v>
       </c>
       <c r="D26" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B26,тип_интерполяции_)</f>
-        <v>1.7250000000000001</v>
+        <v>1.9720730583314994</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -9915,11 +9915,11 @@
       </c>
       <c r="C27" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B27,тип_интерполяции_)</f>
-        <v>1.4350000000000001</v>
+        <v>1.2423960401375422</v>
       </c>
       <c r="D27" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B27,тип_интерполяции_)</f>
-        <v>1.87</v>
+        <v>2.1327694643902064</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -9959,11 +9959,11 @@
       </c>
       <c r="C28" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B28,тип_интерполяции_)</f>
-        <v>1.5075000000000001</v>
+        <v>1.2932050190987192</v>
       </c>
       <c r="D28" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B28,тип_интерполяции_)</f>
-        <v>2.0150000000000001</v>
+        <v>2.2822264685797156</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -10003,11 +10003,11 @@
       </c>
       <c r="C29" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B29,тип_интерполяции_)</f>
-        <v>1.58</v>
+        <v>1.3469881806136828</v>
       </c>
       <c r="D29" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B29,тип_интерполяции_)</f>
-        <v>2.16</v>
+        <v>2.4204440709000274</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -10047,11 +10047,11 @@
       </c>
       <c r="C30" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B30,тип_интерполяции_)</f>
-        <v>1.6525000000000001</v>
+        <v>1.4037455246824329</v>
       </c>
       <c r="D30" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B30,тип_интерполяции_)</f>
-        <v>2.3050000000000002</v>
+        <v>2.5474222713511416</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -10091,11 +10091,11 @@
       </c>
       <c r="C31" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B31,тип_интерполяции_)</f>
-        <v>1.7250000000000001</v>
+        <v>1.4634770513049695</v>
       </c>
       <c r="D31" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B31,тип_интерполяции_)</f>
-        <v>2.4500000000000002</v>
+        <v>2.6631610699330581</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -10135,11 +10135,11 @@
       </c>
       <c r="C32" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B32,тип_интерполяции_)</f>
-        <v>1.7975000000000001</v>
+        <v>1.526182760481293</v>
       </c>
       <c r="D32" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B32,тип_интерполяции_)</f>
-        <v>2.5950000000000002</v>
+        <v>2.7676604666457774</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="C33" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B33,тип_интерполяции_)</f>
-        <v>1.87</v>
+        <v>1.591862652211403</v>
       </c>
       <c r="D33" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B33,тип_интерполяции_)</f>
-        <v>2.74</v>
+        <v>2.8609204614892985</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -10223,11 +10223,11 @@
       </c>
       <c r="C34" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B34,тип_интерполяции_)</f>
-        <v>1.9425000000000001</v>
+        <v>1.6605167264952996</v>
       </c>
       <c r="D34" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B34,тип_интерполяции_)</f>
-        <v>2.8850000000000002</v>
+        <v>2.9429410544636223</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -10267,11 +10267,11 @@
       </c>
       <c r="C35" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B35,тип_интерполяции_)</f>
-        <v>2.0150000000000001</v>
+        <v>1.7321449833329829</v>
       </c>
       <c r="D35" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B35,тип_интерполяции_)</f>
-        <v>3.0089999999999999</v>
+        <v>3.0137235102555056</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="C36" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B36,тип_интерполяции_)</f>
-        <v>2.0875000000000004</v>
+        <v>1.8067474227244527</v>
       </c>
       <c r="D36" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B36,тип_интерполяции_)</f>
-        <v>3.0525000000000002</v>
+        <v>3.0735150692709068</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -10355,11 +10355,11 @@
       </c>
       <c r="C37" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B37,тип_интерполяции_)</f>
-        <v>2.16</v>
+        <v>1.8843240446697092</v>
       </c>
       <c r="D37" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B37,тип_интерполяции_)</f>
-        <v>3.0960000000000001</v>
+        <v>3.1231012834918825</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -10399,11 +10399,11 @@
       </c>
       <c r="C38" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B38,тип_интерполяции_)</f>
-        <v>2.2324999999999999</v>
+        <v>1.9648748491687524</v>
       </c>
       <c r="D38" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B38,тип_интерполяции_)</f>
-        <v>3.1395</v>
+        <v>3.1633389430661012</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -10443,11 +10443,11 @@
       </c>
       <c r="C39" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B39,тип_интерполяции_)</f>
-        <v>2.3050000000000002</v>
+        <v>2.0483998362215821</v>
       </c>
       <c r="D39" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B39,тип_интерполяции_)</f>
-        <v>3.1830000000000003</v>
+        <v>3.1950848381412307</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -10487,11 +10487,11 @@
       </c>
       <c r="C40" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B40,тип_интерполяции_)</f>
-        <v>2.3775000000000004</v>
+        <v>2.1348990058281982</v>
       </c>
       <c r="D40" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B40,тип_интерполяции_)</f>
-        <v>3.2265000000000001</v>
+        <v>3.2191957588649394</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -10531,11 +10531,11 @@
       </c>
       <c r="C41" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B41,тип_интерполяции_)</f>
-        <v>2.4500000000000002</v>
+        <v>2.2243723579886012</v>
       </c>
       <c r="D41" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B41,тип_интерполяции_)</f>
-        <v>3.27</v>
+        <v>3.2365284953848956</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -10575,11 +10575,11 @@
       </c>
       <c r="C42" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B42,тип_интерполяции_)</f>
-        <v>2.5225</v>
+        <v>2.3168198927027905</v>
       </c>
       <c r="D42" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B42,тип_интерполяции_)</f>
-        <v>3.3134999999999999</v>
+        <v>3.2479398378487674</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -10619,11 +10619,11 @@
       </c>
       <c r="C43" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B43,тип_интерполяции_)</f>
-        <v>2.5949999999999998</v>
+        <v>2.4122416099707666</v>
       </c>
       <c r="D43" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B43,тип_интерполяции_)</f>
-        <v>3.3569999999999998</v>
+        <v>3.2542865764042235</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -10663,11 +10663,11 @@
       </c>
       <c r="C44" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B44,тип_интерполяции_)</f>
-        <v>2.6674999999999995</v>
+        <v>2.5106375097925291</v>
       </c>
       <c r="D44" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B44,тип_интерполяции_)</f>
-        <v>3.4004999999999996</v>
+        <v>3.2564255011989318</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -10707,11 +10707,11 @@
       </c>
       <c r="C45" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B45,тип_интерполяции_)</f>
-        <v>2.7399999999999993</v>
+        <v>2.6120075921680783</v>
       </c>
       <c r="D45" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B45,тип_интерполяции_)</f>
-        <v>3.4439999999999995</v>
+        <v>3.2552134023805612</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -10751,11 +10751,11 @@
       </c>
       <c r="C46" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B46,тип_интерполяции_)</f>
-        <v>2.8124999999999991</v>
+        <v>2.7163518570974139</v>
       </c>
       <c r="D46" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B46,тип_интерполяции_)</f>
-        <v>3.4874999999999994</v>
+        <v>3.2515070700967788</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -10795,11 +10795,11 @@
       </c>
       <c r="C47" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B47,тип_интерполяции_)</f>
-        <v>2.8849999999999989</v>
+        <v>2.8236703045805362</v>
       </c>
       <c r="D47" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B47,тип_интерполяции_)</f>
-        <v>3.5309999999999993</v>
+        <v>3.2461632944952541</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -10839,11 +10839,11 @@
       </c>
       <c r="C48" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B48,тип_интерполяции_)</f>
-        <v>2.9574999999999987</v>
+        <v>2.9339629346174454</v>
       </c>
       <c r="D48" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B48,тип_интерполяции_)</f>
-        <v>3.5744999999999991</v>
+        <v>3.2400388657236543</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -10883,11 +10883,11 @@
       </c>
       <c r="C49" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B49,тип_интерполяции_)</f>
-        <v>3.0599999999999969</v>
+        <v>3.047233830795598</v>
       </c>
       <c r="D49" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B49,тип_интерполяции_)</f>
-        <v>3.617999999999999</v>
+        <v>3.2339905739296486</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -10927,11 +10927,11 @@
       </c>
       <c r="C50" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B50,тип_интерполяции_)</f>
-        <v>3.2049999999999965</v>
+        <v>3.1636336155766589</v>
       </c>
       <c r="D50" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B50,тип_интерполяции_)</f>
-        <v>3.6614999999999989</v>
+        <v>3.2288752092609045</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -10971,11 +10971,11 @@
       </c>
       <c r="C51" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B51,тип_интерполяции_)</f>
-        <v>3.3499999999999961</v>
+        <v>3.2834964932556381</v>
       </c>
       <c r="D51" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B51,тип_интерполяции_)</f>
-        <v>3.7049999999999987</v>
+        <v>3.2255495618650905</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -11015,11 +11015,11 @@
       </c>
       <c r="C52" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B52,тип_интерполяции_)</f>
-        <v>3.4949999999999957</v>
+        <v>3.4071682784661905</v>
       </c>
       <c r="D52" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B52,тип_интерполяции_)</f>
-        <v>3.7484999999999986</v>
+        <v>3.2248704218898752</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -11059,11 +11059,11 @@
       </c>
       <c r="C53" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B53,тип_интерполяции_)</f>
-        <v>3.6399999999999952</v>
+        <v>3.5349947858419695</v>
       </c>
       <c r="D53" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B53,тип_интерполяции_)</f>
-        <v>3.7919999999999985</v>
+        <v>3.2276945794829266</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="C54" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B54,тип_интерполяции_)</f>
-        <v>3.7849999999999948</v>
+        <v>3.6673218300166295</v>
       </c>
       <c r="D54" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B54,тип_интерполяции_)</f>
-        <v>3.8354999999999984</v>
+        <v>3.2348788247919127</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -11128,11 +11128,11 @@
       </c>
       <c r="C55" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B55,тип_интерполяции_)</f>
-        <v>3.9299999999999944</v>
+        <v>3.8044952256238247</v>
       </c>
       <c r="D55" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B55,тип_интерполяции_)</f>
-        <v>3.8789999999999982</v>
+        <v>3.2472799479645023</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="C56" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B56,тип_интерполяции_)</f>
-        <v>4.074999999999994</v>
+        <v>3.9468607872972097</v>
       </c>
       <c r="D56" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B56,тип_интерполяции_)</f>
-        <v>3.9224999999999981</v>
+        <v>3.2657547391483632</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -11178,11 +11178,11 @@
       </c>
       <c r="C57" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B57,тип_интерполяции_)</f>
-        <v>4.2199999999999935</v>
+        <v>4.094764329670439</v>
       </c>
       <c r="D57" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B57,тип_интерполяции_)</f>
-        <v>3.965999999999998</v>
+        <v>3.291159988491164</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -11203,11 +11203,11 @@
       </c>
       <c r="C58" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B58,тип_интерполяции_)</f>
-        <v>4.3649999999999931</v>
+        <v>4.2485516673771651</v>
       </c>
       <c r="D58" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B58,тип_интерполяции_)</f>
-        <v>4.0094999999999983</v>
+        <v>3.3243524861405724</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -11228,11 +11228,11 @@
       </c>
       <c r="C59" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B59,тип_интерполяции_)</f>
-        <v>4.5099999999999927</v>
+        <v>4.4085686150510446</v>
       </c>
       <c r="D59" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B59,тип_интерполяции_)</f>
-        <v>4.0529999999999982</v>
+        <v>3.3661890222442574</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -11253,11 +11253,11 @@
       </c>
       <c r="C60" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B60,тип_интерполяции_)</f>
-        <v>4.6549999999999923</v>
+        <v>4.57516098732573</v>
       </c>
       <c r="D60" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B60,тип_интерполяции_)</f>
-        <v>4.096499999999998</v>
+        <v>3.4175263869498869</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -11278,11 +11278,11 @@
       </c>
       <c r="C61" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B61,тип_интерполяции_)</f>
-        <v>4.7999999999999918</v>
+        <v>4.7486745988348762</v>
       </c>
       <c r="D61" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B61,тип_интерполяции_)</f>
-        <v>4.1399999999999979</v>
+        <v>3.4792213704051291</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -11303,11 +11303,11 @@
       </c>
       <c r="C62" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B62,тип_интерполяции_)</f>
-        <v>4.9449999999999914</v>
+        <v>4.9294552642121374</v>
       </c>
       <c r="D62" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B62,тип_интерполяции_)</f>
-        <v>4.1834999999999978</v>
+        <v>3.5521307627576526</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -11328,11 +11328,11 @@
       </c>
       <c r="C63" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B63,тип_интерполяции_)</f>
-        <v>5.0562499999999941</v>
+        <v>5.1178106286036309</v>
       </c>
       <c r="D63" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B63,тип_интерполяции_)</f>
-        <v>4.2269999999999976</v>
+        <v>3.6371113541551252</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -11353,11 +11353,11 @@
       </c>
       <c r="C64" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B64,тип_интерполяции_)</f>
-        <v>5.1468749999999943</v>
+        <v>5.3135215105266536</v>
       </c>
       <c r="D64" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B64,тип_интерполяции_)</f>
-        <v>4.2704999999999975</v>
+        <v>3.7350199347452153</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -11378,11 +11378,11 @@
       </c>
       <c r="C65" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B65,тип_интерполяции_)</f>
-        <v>5.2374999999999936</v>
+        <v>5.5159847036612746</v>
       </c>
       <c r="D65" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B65,тип_интерполяции_)</f>
-        <v>4.3139999999999974</v>
+        <v>3.8467132946755913</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -11403,11 +11403,11 @@
       </c>
       <c r="C66" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B66,тип_интерполяции_)</f>
-        <v>5.3281249999999938</v>
+        <v>5.7245882905099377</v>
       </c>
       <c r="D66" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B66,тип_интерполяции_)</f>
-        <v>4.3574999999999973</v>
+        <v>3.9730482240939216</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -11428,11 +11428,11 @@
       </c>
       <c r="C67" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B67,тип_интерполяции_)</f>
-        <v>5.4187499999999931</v>
+        <v>5.9387203535750865</v>
       </c>
       <c r="D67" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B67,тип_интерполяции_)</f>
-        <v>4.4009999999999971</v>
+        <v>4.114881513147874</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -11453,11 +11453,11 @@
       </c>
       <c r="C68" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B68,тип_интерполяции_)</f>
-        <v>5.5093749999999932</v>
+        <v>6.1577689753591649</v>
       </c>
       <c r="D68" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B68,тип_интерполяции_)</f>
-        <v>4.444499999999997</v>
+        <v>4.273069951985117</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -11478,11 +11478,11 @@
       </c>
       <c r="C69" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B69,тип_интерполяции_)</f>
-        <v>5.5999999999999925</v>
+        <v>6.3811222383646165</v>
       </c>
       <c r="D69" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B69,тип_интерполяции_)</f>
-        <v>4.4879999999999969</v>
+        <v>4.4484703307533193</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -11503,11 +11503,11 @@
       </c>
       <c r="C70" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B70,тип_интерполяции_)</f>
-        <v>5.6906249999999927</v>
+        <v>6.608168225093884</v>
       </c>
       <c r="D70" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B70,тип_интерполяции_)</f>
-        <v>4.6924999999999777</v>
+        <v>4.6417851204921385</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -11528,11 +11528,11 @@
       </c>
       <c r="C71" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B71,тип_интерполяции_)</f>
-        <v>5.781249999999992</v>
+        <v>6.8382950180494113</v>
       </c>
       <c r="D71" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B71,тип_интерполяции_)</f>
-        <v>4.9583333333333108</v>
+        <v>4.8522511523034257</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -11553,11 +11553,11 @@
       </c>
       <c r="C72" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B72,тип_интерполяции_)</f>
-        <v>5.8718749999999922</v>
+        <v>7.0708906997336429</v>
       </c>
       <c r="D72" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B72,тип_интерполяции_)</f>
-        <v>5.2241666666666431</v>
+        <v>5.0782953360877778</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -11578,11 +11578,11 @@
       </c>
       <c r="C73" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B73,тип_интерполяции_)</f>
-        <v>5.9624999999999915</v>
+        <v>7.3053433526490217</v>
       </c>
       <c r="D73" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B73,тип_интерполяции_)</f>
-        <v>5.4899999999999753</v>
+        <v>5.3183360501203412</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -11603,11 +11603,11 @@
       </c>
       <c r="C74" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B74,тип_интерполяции_)</f>
-        <v>6.0531249999999917</v>
+        <v>7.5410410592979913</v>
       </c>
       <c r="D74" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B74,тип_интерполяции_)</f>
-        <v>5.7558333333333085</v>
+        <v>5.5707916726762647</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -11628,11 +11628,11 @@
       </c>
       <c r="C75" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B75,тип_интерполяции_)</f>
-        <v>6.1437499999999909</v>
+        <v>7.7773719021829963</v>
       </c>
       <c r="D75" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B75,тип_интерполяции_)</f>
-        <v>6.0216666666666407</v>
+        <v>5.8340805820306931</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -11653,11 +11653,11 @@
       </c>
       <c r="C76" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B76,тип_интерполяции_)</f>
-        <v>6.2343749999999911</v>
+        <v>8.0137239638064788</v>
       </c>
       <c r="D76" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B76,тип_интерполяции_)</f>
-        <v>6.287499999999973</v>
+        <v>6.1066211564587745</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -11678,11 +11678,11 @@
       </c>
       <c r="C77" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B77,тип_интерполяции_)</f>
-        <v>6.3249999999999904</v>
+        <v>8.2494853266708841</v>
       </c>
       <c r="D77" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B77,тип_интерполяции_)</f>
-        <v>6.5533333333333061</v>
+        <v>6.3868317742356551</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="C78" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B78,тип_интерполяции_)</f>
-        <v>6.4156249999999906</v>
+        <v>8.4840440732786533</v>
       </c>
       <c r="D78" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B78,тип_интерполяции_)</f>
-        <v>6.8191666666666384</v>
+        <v>6.6731308136364822</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -11728,11 +11728,11 @@
       </c>
       <c r="C79" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B79,тип_интерполяции_)</f>
-        <v>6.5062499999999899</v>
+        <v>8.7167882861322319</v>
       </c>
       <c r="D79" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B79,тип_интерполяции_)</f>
-        <v>7.0849999999999707</v>
+        <v>6.9639366529364031</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -11753,11 +11753,11 @@
       </c>
       <c r="C80" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B80,тип_интерполяции_)</f>
-        <v>6.5968749999999901</v>
+        <v>8.9471060477340636</v>
       </c>
       <c r="D80" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B80,тип_интерполяции_)</f>
-        <v>7.3508333333333038</v>
+        <v>7.257667670410564</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -11778,11 +11778,11 @@
       </c>
       <c r="C81" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B81,тип_интерполяции_)</f>
-        <v>6.6874999999999893</v>
+        <v>9.1743854405865921</v>
       </c>
       <c r="D81" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B81,тип_интерполяции_)</f>
-        <v>7.6166666666666361</v>
+        <v>7.5527422443341123</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -11803,11 +11803,11 @@
       </c>
       <c r="C82" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B82,тип_интерполяции_)</f>
-        <v>6.7781249999999895</v>
+        <v>9.3980145471922594</v>
       </c>
       <c r="D82" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B82,тип_интерполяции_)</f>
-        <v>7.8824999999999683</v>
+        <v>7.8475787529821952</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -11828,11 +11828,11 @@
       </c>
       <c r="C83" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B83,тип_интерполяции_)</f>
-        <v>6.8687499999999888</v>
+        <v>9.6173814500535126</v>
       </c>
       <c r="D83" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B83,тип_интерполяции_)</f>
-        <v>8.1483333333333015</v>
+        <v>8.140595574629959</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -11853,11 +11853,11 @@
       </c>
       <c r="C84" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B84,тип_интерполяции_)</f>
-        <v>6.959374999999989</v>
+        <v>9.8318742316727903</v>
       </c>
       <c r="D84" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B84,тип_интерполяции_)</f>
-        <v>8.4141666666666328</v>
+        <v>8.43021108755255</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -11878,11 +11878,11 @@
       </c>
       <c r="C85" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B85,тип_интерполяции_)</f>
-        <v>7.0499999999999883</v>
+        <v>10.04088097455254</v>
       </c>
       <c r="D85" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B85,тип_интерполяции_)</f>
-        <v>8.679999999999966</v>
+        <v>8.7148436700251164</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -11903,11 +11903,11 @@
       </c>
       <c r="C86" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B86,тип_интерполяции_)</f>
-        <v>7.1406249999999885</v>
+        <v>10.243789761195204</v>
       </c>
       <c r="D86" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B86,тип_интерполяции_)</f>
-        <v>8.9458333333332991</v>
+        <v>8.9929117003228054</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -11928,11 +11928,11 @@
       </c>
       <c r="C87" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B87,тип_интерполяции_)</f>
-        <v>7.2312499999999877</v>
+        <v>10.439988674103226</v>
       </c>
       <c r="D87" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B87,тип_интерполяции_)</f>
-        <v>9.2116666666666305</v>
+        <v>9.2628335567207625</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -11953,11 +11953,11 @@
       </c>
       <c r="C88" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B88,тип_интерполяции_)</f>
-        <v>7.3218749999999879</v>
+        <v>10.628865795779051</v>
       </c>
       <c r="D88" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B88,тип_интерполяции_)</f>
-        <v>9.4774999999999636</v>
+        <v>9.5230276174941348</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -11978,11 +11978,11 @@
       </c>
       <c r="C89" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B89,тип_интерполяции_)</f>
-        <v>7.4124999999999872</v>
+        <v>10.809809208725119</v>
       </c>
       <c r="D89" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B89,тип_интерполяции_)</f>
-        <v>9.7433333333332968</v>
+        <v>9.7719122609180697</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -12003,11 +12003,11 @@
       </c>
       <c r="C90" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B90,тип_интерполяции_)</f>
-        <v>7.5031249999999874</v>
+        <v>10.982206995443876</v>
       </c>
       <c r="D90" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B90,тип_интерполяции_)</f>
-        <v>10.006249999999975</v>
+        <v>10.007905884190327</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -12028,11 +12028,11 @@
       </c>
       <c r="C91" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B91,тип_интерполяции_)</f>
-        <v>7.5937499999999867</v>
+        <v>11.145447238437768</v>
       </c>
       <c r="D91" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B91,тип_интерполяции_)</f>
-        <v>10.187499999999973</v>
+        <v>10.229937719369381</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -12053,11 +12053,11 @@
       </c>
       <c r="C92" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B92,тип_интерполяции_)</f>
-        <v>7.6843749999999869</v>
+        <v>11.298918020209234</v>
       </c>
       <c r="D92" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B92,тип_интерполяции_)</f>
-        <v>10.368749999999974</v>
+        <v>10.438779777181308</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -12078,11 +12078,11 @@
       </c>
       <c r="C93" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B93,тип_интерполяции_)</f>
-        <v>7.7749999999999861</v>
+        <v>11.442007423260721</v>
       </c>
       <c r="D93" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B93,тип_интерполяции_)</f>
-        <v>10.549999999999972</v>
+        <v>10.635619457552895</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -12103,11 +12103,11 @@
       </c>
       <c r="C94" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B94,тип_интерполяции_)</f>
-        <v>7.8656249999999863</v>
+        <v>11.57410353009467</v>
       </c>
       <c r="D94" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B94,тип_интерполяции_)</f>
-        <v>10.731249999999973</v>
+        <v>10.821644160410932</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -12128,11 +12128,11 @@
       </c>
       <c r="C95" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B95,тип_интерполяции_)</f>
-        <v>7.9562499999999856</v>
+        <v>11.694594423213527</v>
       </c>
       <c r="D95" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B95,тип_интерполяции_)</f>
-        <v>10.912499999999971</v>
+        <v>10.998041285682204</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -12153,11 +12153,11 @@
       </c>
       <c r="C96" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B96,тип_интерполяции_)</f>
-        <v>8.0468749999999858</v>
+        <v>11.802868185119735</v>
       </c>
       <c r="D96" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B96,тип_интерполяции_)</f>
-        <v>11.093749999999972</v>
+        <v>11.1659982332935</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -12178,11 +12178,11 @@
       </c>
       <c r="C97" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B97,тип_интерполяции_)</f>
-        <v>8.1374999999999851</v>
+        <v>11.898312898315735</v>
       </c>
       <c r="D97" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B97,тип_интерполяции_)</f>
-        <v>11.27499999999997</v>
+        <v>11.326702403171609</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -12203,11 +12203,11 @@
       </c>
       <c r="C98" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B98,тип_интерполяции_)</f>
-        <v>8.2281249999999844</v>
+        <v>11.980316645303976</v>
       </c>
       <c r="D98" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B98,тип_интерполяции_)</f>
-        <v>11.456249999999971</v>
+        <v>11.481341195243317</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -12228,11 +12228,11 @@
       </c>
       <c r="C99" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B99,тип_интерполяции_)</f>
-        <v>8.3187499999999854</v>
+        <v>12.048267508586896</v>
       </c>
       <c r="D99" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B99,тип_интерполяции_)</f>
-        <v>11.637499999999969</v>
+        <v>11.631102009435415</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -12253,11 +12253,11 @@
       </c>
       <c r="C100" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B100,тип_интерполяции_)</f>
-        <v>8.4093749999999847</v>
+        <v>12.101553570666942</v>
       </c>
       <c r="D100" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B100,тип_интерполяции_)</f>
-        <v>11.818749999999969</v>
+        <v>11.777172245674686</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -12278,11 +12278,11 @@
       </c>
       <c r="C101" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B101,тип_интерполяции_)</f>
-        <v>8.499999999999984</v>
+        <v>12.139562914046557</v>
       </c>
       <c r="D101" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B101,тип_интерполяции_)</f>
-        <v>11.999999999999968</v>
+        <v>11.920739303887922</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -12303,11 +12303,11 @@
       </c>
       <c r="C102" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B102,тип_интерполяции_)</f>
-        <v>8.5906249999999833</v>
+        <v>12.161683621228185</v>
       </c>
       <c r="D102" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B102,тип_интерполяции_)</f>
-        <v>12.181249999999968</v>
+        <v>12.062990584001909</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -12328,11 +12328,11 @@
       </c>
       <c r="C103" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B103,тип_интерполяции_)</f>
-        <v>8.6812499999999844</v>
+        <v>12.167303774714268</v>
       </c>
       <c r="D103" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B103,тип_интерполяции_)</f>
-        <v>12.362499999999967</v>
+        <v>12.205113485943434</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -12353,11 +12353,11 @@
       </c>
       <c r="C104" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B104,тип_интерполяции_)</f>
-        <v>8.7718749999999837</v>
+        <v>12.15581145700725</v>
       </c>
       <c r="D104" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B104,тип_интерполяции_)</f>
-        <v>12.543749999999967</v>
+        <v>12.348295409639288</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -12378,11 +12378,11 @@
       </c>
       <c r="C105" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B105,тип_интерполяции_)</f>
-        <v>8.8624999999999829</v>
+        <v>12.126594750609575</v>
       </c>
       <c r="D105" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B105,тип_интерполяции_)</f>
-        <v>12.724999999999966</v>
+        <v>12.493723755016255</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -12403,11 +12403,11 @@
       </c>
       <c r="C106" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B106,тип_интерполяции_)</f>
-        <v>8.9531249999999822</v>
+        <v>12.079041738023689</v>
       </c>
       <c r="D106" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B106,тип_интерполяции_)</f>
-        <v>12.906249999999966</v>
+        <v>12.642585922001127</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -12428,11 +12428,11 @@
       </c>
       <c r="C107" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B107,тип_интерполяции_)</f>
-        <v>9.0437499999999833</v>
+        <v>12.012540501752031</v>
       </c>
       <c r="D107" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B107,тип_интерполяции_)</f>
-        <v>13.087499999999965</v>
+        <v>12.796069310520688</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -12453,11 +12453,11 @@
       </c>
       <c r="C108" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B108,тип_интерполяции_)</f>
-        <v>9.1343749999999826</v>
+        <v>11.92647912429705</v>
       </c>
       <c r="D108" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B108,тип_интерполяции_)</f>
-        <v>13.268749999999965</v>
+        <v>12.955361320501728</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -12478,11 +12478,11 @@
       </c>
       <c r="C109" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B109,тип_интерполяции_)</f>
-        <v>9.2249999999999819</v>
+        <v>11.820245688161183</v>
       </c>
       <c r="D109" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B109,тип_интерполяции_)</f>
-        <v>13.449999999999964</v>
+        <v>13.121649351871033</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -12503,11 +12503,11 @@
       </c>
       <c r="C110" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B110,тип_интерполяции_)</f>
-        <v>9.3156249999999812</v>
+        <v>11.693228275846881</v>
       </c>
       <c r="D110" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B110,тип_интерполяции_)</f>
-        <v>13.631249999999964</v>
+        <v>13.296120804555393</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -12528,11 +12528,11 @@
       </c>
       <c r="C111" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B111,тип_интерполяции_)</f>
-        <v>9.4062499999999822</v>
+        <v>11.544814969856581</v>
       </c>
       <c r="D111" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B111,тип_интерполяции_)</f>
-        <v>13.812499999999963</v>
+        <v>13.479963078481596</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -12553,11 +12553,11 @@
       </c>
       <c r="C112" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B112,тип_интерполяции_)</f>
-        <v>9.4968749999999815</v>
+        <v>11.37439385269273</v>
       </c>
       <c r="D112" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B112,тип_интерполяции_)</f>
-        <v>13.993749999999963</v>
+        <v>13.674363573576427</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -12578,11 +12578,11 @@
       </c>
       <c r="C113" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B113,тип_интерполяции_)</f>
-        <v>9.5874999999999808</v>
+        <v>11.181353006857773</v>
       </c>
       <c r="D113" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B113,тип_интерполяции_)</f>
-        <v>14.174999999999962</v>
+        <v>13.880509689766676</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -12603,11 +12603,11 @@
       </c>
       <c r="C114" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B114,тип_интерполяции_)</f>
-        <v>9.6781249999999801</v>
+        <v>10.965080514854149</v>
       </c>
       <c r="D114" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B114,тип_интерполяции_)</f>
-        <v>14.356249999999962</v>
+        <v>14.099588826979131</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -12628,11 +12628,11 @@
       </c>
       <c r="C115" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B115,тип_интерполяции_)</f>
-        <v>9.7687499999999812</v>
+        <v>10.724964459184307</v>
       </c>
       <c r="D115" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B115,тип_интерполяции_)</f>
-        <v>14.537499999999961</v>
+        <v>14.33278838514058</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -12653,11 +12653,11 @@
       </c>
       <c r="C116" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B116,тип_интерполяции_)</f>
-        <v>9.8593749999999805</v>
+        <v>10.460392922350687</v>
       </c>
       <c r="D116" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B116,тип_интерполяции_)</f>
-        <v>14.718749999999961</v>
+        <v>14.58129576417781</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -12678,11 +12678,11 @@
       </c>
       <c r="C117" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B117,тип_интерполяции_)</f>
-        <v>9.9499999999999797</v>
+        <v>10.170753986855733</v>
       </c>
       <c r="D117" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B117,тип_интерполяции_)</f>
-        <v>14.899999999999959</v>
+        <v>14.846298364017608</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -12703,11 +12703,11 @@
       </c>
       <c r="C118" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B118,тип_интерполяции_)</f>
-        <v>9.8212500000000897</v>
+        <v>9.8554776809986482</v>
       </c>
       <c r="D118" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B118,тип_интерполяции_)</f>
-        <v>15.108333333333279</v>
+        <v>15.12891701587343</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -12728,11 +12728,11 @@
       </c>
       <c r="C119" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B119,тип_интерполяции_)</f>
-        <v>9.42250000000009</v>
+        <v>9.5152407606746774</v>
       </c>
       <c r="D119" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B119,тип_интерполяции_)</f>
-        <v>15.349999999999945</v>
+        <v>15.428293972451359</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -12753,11 +12753,11 @@
       </c>
       <c r="C120" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B120,тип_интерполяции_)</f>
-        <v>9.0237500000000921</v>
+        <v>9.1521469598380936</v>
       </c>
       <c r="D120" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B120,тип_интерполяции_)</f>
-        <v>15.591666666666612</v>
+        <v>15.741306847311701</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -12778,11 +12778,11 @@
       </c>
       <c r="C121" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B121,тип_интерполяции_)</f>
-        <v>8.6250000000000924</v>
+        <v>8.7683782145294451</v>
       </c>
       <c r="D121" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B121,тип_интерполяции_)</f>
-        <v>15.833333333333277</v>
+        <v>16.064709145935645</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -12803,11 +12803,11 @@
       </c>
       <c r="C122" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B122,тип_интерполяции_)</f>
-        <v>8.2262500000000944</v>
+        <v>8.3661164607892822</v>
       </c>
       <c r="D122" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B122,тип_интерполяции_)</f>
-        <v>16.074999999999942</v>
+        <v>16.395254373804381</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -12828,11 +12828,11 @@
       </c>
       <c r="C123" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B123,тип_интерполяции_)</f>
-        <v>7.8275000000000947</v>
+        <v>7.9475436346581487</v>
       </c>
       <c r="D123" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B123,тип_интерполяции_)</f>
-        <v>16.31666666666661</v>
+        <v>16.729696036399101</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -12853,11 +12853,11 @@
       </c>
       <c r="C124" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B124,тип_интерполяции_)</f>
-        <v>7.4287500000000968</v>
+        <v>7.514841672176594</v>
       </c>
       <c r="D124" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B124,тип_интерполяции_)</f>
-        <v>16.558333333333277</v>
+        <v>17.064787639200993</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -12878,11 +12878,11 @@
       </c>
       <c r="C125" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B125,тип_интерполяции_)</f>
-        <v>7.0300000000000926</v>
+        <v>7.0701925093851603</v>
       </c>
       <c r="D125" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B125,тип_интерполяции_)</f>
-        <v>16.799999999999944</v>
+        <v>17.397282687691249</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="C126" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B126,тип_интерполяции_)</f>
-        <v>6.6312500000000938</v>
+        <v>6.6157780823244048</v>
       </c>
       <c r="D126" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B126,тип_интерполяции_)</f>
-        <v>17.041666666666611</v>
+        <v>17.723934687351054</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -12928,11 +12928,11 @@
       </c>
       <c r="C127" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B127,тип_интерполяции_)</f>
-        <v>6.232500000000095</v>
+        <v>6.1537803270348705</v>
       </c>
       <c r="D127" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B127,тип_интерполяции_)</f>
-        <v>17.283333333333275</v>
+        <v>18.041497143661601</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -12953,11 +12953,11 @@
       </c>
       <c r="C128" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B128,тип_интерполяции_)</f>
-        <v>5.8337500000000961</v>
+        <v>5.6863811795571042</v>
       </c>
       <c r="D128" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B128,тип_интерполяции_)</f>
-        <v>17.524999999999942</v>
+        <v>18.346723562104081</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -12978,11 +12978,11 @@
       </c>
       <c r="C129" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B129,тип_интерполяции_)</f>
-        <v>5.4350000000000973</v>
+        <v>5.2157625759316542</v>
       </c>
       <c r="D129" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B129,тип_интерполяции_)</f>
-        <v>17.766666666666609</v>
+        <v>18.636367448159685</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -13003,11 +13003,11 @@
       </c>
       <c r="C130" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B130,тип_интерполяции_)</f>
-        <v>5.0362500000000985</v>
+        <v>4.744106452199067</v>
       </c>
       <c r="D130" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B130,тип_интерполяции_)</f>
-        <v>18.008333333333272</v>
+        <v>18.907182307309597</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -13028,11 +13028,11 @@
       </c>
       <c r="C131" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B131,тип_интерполяции_)</f>
-        <v>4.6375000000000997</v>
+        <v>4.2735947443998912</v>
       </c>
       <c r="D131" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B131,тип_интерполяции_)</f>
-        <v>18.24999999999994</v>
+        <v>19.155921645035011</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -13053,11 +13053,11 @@
       </c>
       <c r="C132" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B132,тип_интерполяции_)</f>
-        <v>4.2387500000001008</v>
+        <v>3.8064093885746733</v>
       </c>
       <c r="D132" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B132,тип_интерполяции_)</f>
-        <v>18.491666666666607</v>
+        <v>19.379338966817119</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
@@ -13078,11 +13078,11 @@
       </c>
       <c r="C133" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B133,тип_интерполяции_)</f>
-        <v>3.840000000000102</v>
+        <v>3.3447323207639612</v>
       </c>
       <c r="D133" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B133,тип_интерполяции_)</f>
-        <v>18.73333333333327</v>
+        <v>19.574187778137109</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -13103,11 +13103,11 @@
       </c>
       <c r="C134" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B134,тип_интерполяции_)</f>
-        <v>3.4412500000001032</v>
+        <v>2.8907454770083021</v>
       </c>
       <c r="D134" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B134,тип_интерполяции_)</f>
-        <v>18.974999999999937</v>
+        <v>19.73722158447617</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -13128,11 +13128,11 @@
       </c>
       <c r="C135" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B135,тип_интерполяции_)</f>
-        <v>3.0425000000001043</v>
+        <v>2.4466307933482434</v>
       </c>
       <c r="D135" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B135,тип_интерполяции_)</f>
-        <v>19.216666666666605</v>
+        <v>19.865193891315492</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -13153,11 +13153,11 @@
       </c>
       <c r="C136" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B136,тип_интерполяции_)</f>
-        <v>2.6437500000001055</v>
+        <v>2.0145702058243327</v>
       </c>
       <c r="D136" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B136,тип_интерполяции_)</f>
-        <v>19.458333333333268</v>
+        <v>19.954858204136269</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -13178,11 +13178,11 @@
       </c>
       <c r="C137" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B137,тип_интерполяции_)</f>
-        <v>2.2450000000001067</v>
+        <v>1.5967456504771178</v>
       </c>
       <c r="D137" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B137,тип_интерполяции_)</f>
-        <v>19.699999999999935</v>
+        <v>20.002968028419684</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -13203,11 +13203,11 @@
       </c>
       <c r="C138" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B138,тип_интерполяции_)</f>
-        <v>1.8462500000001079</v>
+        <v>1.1953390633471457</v>
       </c>
       <c r="D138" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B138,тип_интерполяции_)</f>
-        <v>19.941666666666602</v>
+        <v>20.006276869646932</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
@@ -13228,11 +13228,11 @@
       </c>
       <c r="C139" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B139,тип_интерполяции_)</f>
-        <v>1.447500000000109</v>
+        <v>0.81253238047496423</v>
       </c>
       <c r="D139" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B139,тип_интерполяции_)</f>
-        <v>19.685714285714401</v>
+        <v>19.961923630734969</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
@@ -13253,11 +13253,11 @@
       </c>
       <c r="C140" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B140,тип_интерполяции_)</f>
-        <v>1.0487500000001102</v>
+        <v>0.45050753790112052</v>
       </c>
       <c r="D140" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B140,тип_интерполяции_)</f>
-        <v>19.271428571428686</v>
+        <v>19.870306841541773</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
@@ -13278,11 +13278,11 @@
       </c>
       <c r="C141" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B141,тип_интерполяции_)</f>
-        <v>0.65000000000011138</v>
+        <v>0.1114464716661622</v>
       </c>
       <c r="D141" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B141,тип_интерполяции_)</f>
-        <v>18.857142857142971</v>
+        <v>19.733464056857823</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
@@ -13303,11 +13303,11 @@
       </c>
       <c r="C142" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B142,тип_интерполяции_)</f>
-        <v>0.25125000000011255</v>
+        <v>-0.20246888218936329</v>
       </c>
       <c r="D142" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B142,тип_интерполяции_)</f>
-        <v>18.44285714285726</v>
+        <v>19.553445246135567</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
@@ -13328,11 +13328,11 @@
       </c>
       <c r="C143" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B143,тип_интерполяции_)</f>
-        <v>-0.14749999999988628</v>
+        <v>-0.4890565876249085</v>
       </c>
       <c r="D143" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B143,тип_интерполяции_)</f>
-        <v>18.028571428571546</v>
+        <v>19.332300378827433</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
@@ -13353,11 +13353,11 @@
       </c>
       <c r="C144" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B144,тип_интерполяции_)</f>
-        <v>-0.54624999999988511</v>
+        <v>-0.74613470859992592</v>
       </c>
       <c r="D144" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B144,тип_интерполяции_)</f>
-        <v>17.614285714285835</v>
+        <v>19.072079424385869</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -13378,11 +13378,11 @@
       </c>
       <c r="C145" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B145,тип_интерполяции_)</f>
-        <v>-0.94499999999988393</v>
+        <v>-0.97152130907386824</v>
       </c>
       <c r="D145" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B145,тип_интерполяции_)</f>
-        <v>17.20000000000012</v>
+        <v>18.774832352263306</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -13403,11 +13403,11 @@
       </c>
       <c r="C146" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B146,тип_интерполяции_)</f>
-        <v>-0.95833333333334758</v>
+        <v>-1.1634187049278097</v>
       </c>
       <c r="D146" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B146,тип_интерполяции_)</f>
-        <v>16.785714285714409</v>
+        <v>18.442609131912189</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
@@ -13428,11 +13428,11 @@
       </c>
       <c r="C147" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B147,тип_интерполяции_)</f>
-        <v>-0.91000000000001435</v>
+        <v>-1.322364578409861</v>
       </c>
       <c r="D147" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B147,тип_интерполяции_)</f>
-        <v>16.371428571428694</v>
+        <v>18.077459732784948</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
@@ -13453,11 +13453,11 @@
       </c>
       <c r="C148" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B148,тип_интерполяции_)</f>
-        <v>-0.86166666666668112</v>
+        <v>-1.4497740833083195</v>
       </c>
       <c r="D148" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B148,тип_интерполяции_)</f>
-        <v>15.957142857142982</v>
+        <v>17.681434124334029</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -13478,11 +13478,11 @@
       </c>
       <c r="C149" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B149,тип_интерполяции_)</f>
-        <v>-0.81333333333334801</v>
+        <v>-1.5470639473073531</v>
       </c>
       <c r="D149" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B149,тип_интерполяции_)</f>
-        <v>15.542857142857269</v>
+        <v>17.256582276011866</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -13503,11 +13503,11 @@
       </c>
       <c r="C150" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B150,тип_интерполяции_)</f>
-        <v>-0.76500000000001478</v>
+        <v>-1.6156508980911302</v>
       </c>
       <c r="D150" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B150,тип_интерполяции_)</f>
-        <v>15.128571428571556</v>
+        <v>16.804954157270899</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -13528,11 +13528,11 @@
       </c>
       <c r="C151" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B151,тип_интерполяции_)</f>
-        <v>-0.71666666666668155</v>
+        <v>-1.6569516633438188</v>
       </c>
       <c r="D151" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B151,тип_интерполяции_)</f>
-        <v>14.714285714285841</v>
+        <v>16.328599737563565</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -13553,11 +13553,11 @@
       </c>
       <c r="C152" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B152,тип_интерполяции_)</f>
-        <v>-0.66833333333334843</v>
+        <v>-1.6723829707495874</v>
       </c>
       <c r="D152" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B152,тип_интерполяции_)</f>
-        <v>14.300000000000129</v>
+        <v>15.829568986342302</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -13578,11 +13578,11 @@
       </c>
       <c r="C153" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B153,тип_интерполяции_)</f>
-        <v>-0.62000000000001521</v>
+        <v>-1.6633615479926038</v>
       </c>
       <c r="D153" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B153,тип_интерполяции_)</f>
-        <v>13.885714285714416</v>
+        <v>15.309911873059551</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -13603,11 +13603,11 @@
       </c>
       <c r="C154" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B154,тип_интерполяции_)</f>
-        <v>-0.57166666666668209</v>
+        <v>-1.6313041227570364</v>
       </c>
       <c r="D154" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B154,тип_интерполяции_)</f>
-        <v>13.471428571428703</v>
+        <v>14.771678367167748</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -13628,11 +13628,11 @@
       </c>
       <c r="C155" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B155,тип_интерполяции_)</f>
-        <v>-0.52333333333334886</v>
+        <v>-1.5776274227270535</v>
       </c>
       <c r="D155" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B155,тип_интерполяции_)</f>
-        <v>13.05714285714299</v>
+        <v>14.216918438119333</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -13653,11 +13653,11 @@
       </c>
       <c r="C156" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B156,тип_интерполяции_)</f>
-        <v>-0.47500000000001569</v>
+        <v>-1.5037481755868232</v>
       </c>
       <c r="D156" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B156,тип_интерполяции_)</f>
-        <v>12.642857142857277</v>
+        <v>13.647682055366742</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -13678,11 +13678,11 @@
       </c>
       <c r="C157" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B157,тип_интерполяции_)</f>
-        <v>-0.42666666666668246</v>
+        <v>-1.4110831090205136</v>
       </c>
       <c r="D157" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B157,тип_интерполяции_)</f>
-        <v>12.228571428571563</v>
+        <v>13.066019188362414</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -13703,11 +13703,11 @@
       </c>
       <c r="C158" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B158,тип_интерполяции_)</f>
-        <v>-0.37833333333334929</v>
+        <v>-1.3010489507122929</v>
       </c>
       <c r="D158" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B158,тип_интерполяции_)</f>
-        <v>11.81428571428585</v>
+        <v>12.473979806558789</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -13728,11 +13728,11 @@
       </c>
       <c r="C159" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B159,тип_интерполяции_)</f>
-        <v>-0.33000000000001611</v>
+        <v>-1.1750624283463296</v>
       </c>
       <c r="D159" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B159,тип_интерполяции_)</f>
-        <v>11.400000000000137</v>
+        <v>11.873613879408305</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -13753,11 +13753,11 @@
       </c>
       <c r="C160" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B160,тип_интерполяции_)</f>
-        <v>-0.28166666666668289</v>
+        <v>-1.0345402696067914</v>
       </c>
       <c r="D160" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B160,тип_интерполяции_)</f>
-        <v>10.985714285714424</v>
+        <v>11.266971376363399</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -13778,11 +13778,11 @@
       </c>
       <c r="C161" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B161,тип_интерполяции_)</f>
-        <v>-0.23333333333334971</v>
+        <v>-0.88089920217784667</v>
       </c>
       <c r="D161" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B161,тип_интерполяции_)</f>
-        <v>10.571428571428712</v>
+        <v>10.656102266876511</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -13803,11 +13803,11 @@
       </c>
       <c r="C162" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B162,тип_интерполяции_)</f>
-        <v>-0.18500000000001654</v>
+        <v>-0.71555595374366376</v>
       </c>
       <c r="D162" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B162,тип_интерполяции_)</f>
-        <v>10.157142857142999</v>
+        <v>10.043056520400077</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
@@ -13828,11 +13828,11 @@
       </c>
       <c r="C163" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B163,тип_интерполяции_)</f>
-        <v>-0.13666666666668334</v>
+        <v>-0.53992725198841074</v>
       </c>
       <c r="D163" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B163,тип_интерполяции_)</f>
-        <v>9.7428571428572859</v>
+        <v>9.4298841063865364</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -13853,11 +13853,11 @@
       </c>
       <c r="C164" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B164,тип_интерполяции_)</f>
-        <v>-8.8333333333350153E-2</v>
+        <v>-0.35542982459625583</v>
       </c>
       <c r="D164" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B164,тип_интерполяции_)</f>
-        <v>9.3285714285715713</v>
+        <v>8.8186349942883275</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -13878,11 +13878,11 @@
       </c>
       <c r="C165" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B165,тип_интерполяции_)</f>
-        <v>-4.0000000000016966E-2</v>
+        <v>-0.16348039925136718</v>
       </c>
       <c r="D165" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B165,тип_интерполяции_)</f>
-        <v>8.9142857142858585</v>
+        <v>8.2113591535578898</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -13903,11 +13903,11 @@
       </c>
       <c r="C166" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B166,тип_интерполяции_)</f>
-        <v>3.3333333333265117E-2</v>
+        <v>3.450482785419854E-2</v>
       </c>
       <c r="D166" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B166,тип_интерполяции_)</f>
-        <v>8.5000000000001457</v>
+        <v>7.6101065536476602</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -13928,11 +13928,11 @@
       </c>
       <c r="C167" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B167,тип_интерполяции_)</f>
-        <v>0.22666666666659788</v>
+        <v>0.23727465268749584</v>
       </c>
       <c r="D167" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B167,тип_интерполяции_)</f>
-        <v>8.0857142857144328</v>
+        <v>7.0169271640100774</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -13953,11 +13953,11 @@
       </c>
       <c r="C168" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B168,тип_интерполяции_)</f>
-        <v>0.41999999999993065</v>
+        <v>0.44397577172176095</v>
       </c>
       <c r="D168" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B168,тип_интерполяции_)</f>
-        <v>7.67142857142872</v>
+        <v>6.4338709540975794</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
@@ -13978,11 +13978,11 @@
       </c>
       <c r="C169" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B169,тип_интерполяции_)</f>
-        <v>0.61333333333326334</v>
+        <v>0.65381366020580878</v>
       </c>
       <c r="D169" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B169,тип_интерполяции_)</f>
-        <v>7.2571428571430063</v>
+        <v>5.8629878933626056</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -14003,11 +14003,11 @@
       </c>
       <c r="C170" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B170,тип_интерполяции_)</f>
-        <v>0.80666666666659614</v>
+        <v>0.86599379338845439</v>
       </c>
       <c r="D170" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B170,тип_интерполяции_)</f>
-        <v>6.8428571428572935</v>
+        <v>5.3063279512575932</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
@@ -14028,11 +14028,11 @@
       </c>
       <c r="C171" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B171,тип_интерполяции_)</f>
-        <v>0.99999999999992895</v>
+        <v>1.0797216465185127</v>
       </c>
       <c r="D171" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B171,тип_интерполяции_)</f>
-        <v>6.4285714285715807</v>
+        <v>4.7659410972349807</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -14053,11 +14053,11 @@
       </c>
       <c r="C172" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B172,тип_интерполяции_)</f>
-        <v>1.1933333333332616</v>
+        <v>1.2942026948447987</v>
       </c>
       <c r="D172" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B172,тип_интерполяции_)</f>
-        <v>6.0142857142858679</v>
+        <v>4.243877300747207</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -14078,11 +14078,11 @@
       </c>
       <c r="C173" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B173,тип_интерполяции_)</f>
-        <v>1.3866666666665943</v>
+        <v>1.5086424136161274</v>
       </c>
       <c r="D173" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B173,тип_интерполяции_)</f>
-        <v>5.6000000000001542</v>
+        <v>3.7421865312467104</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -14103,11 +14103,11 @@
       </c>
       <c r="C174" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B174,тип_интерполяции_)</f>
-        <v>1.5799999999999272</v>
+        <v>1.7222462780813137</v>
       </c>
       <c r="D174" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B174,тип_интерполяции_)</f>
-        <v>5.1857142857144414</v>
+        <v>3.2629187581859282</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -14128,11 +14128,11 @@
       </c>
       <c r="C175" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B175,тип_интерполяции_)</f>
-        <v>1.7733333333332599</v>
+        <v>1.9342197634891725</v>
       </c>
       <c r="D175" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B175,тип_интерполяции_)</f>
-        <v>4.7714285714287286</v>
+        <v>2.8081239510172997</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -14153,11 +14153,11 @@
       </c>
       <c r="C176" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B176,тип_интерполяции_)</f>
-        <v>1.9666666666665926</v>
+        <v>2.1437683450885188</v>
       </c>
       <c r="D176" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B176,тип_интерполяции_)</f>
-        <v>4.3571428571430149</v>
+        <v>2.3798520791932631</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -14178,11 +14178,11 @@
       </c>
       <c r="C177" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B177,тип_интерполяции_)</f>
-        <v>2.1599999999999255</v>
+        <v>2.3500974981281679</v>
       </c>
       <c r="D177" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B177,тип_интерполяции_)</f>
-        <v>3.942857142857302</v>
+        <v>1.9801531121662563</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -14203,11 +14203,11 @@
       </c>
       <c r="C178" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B178,тип_интерполяции_)</f>
-        <v>2.353333333333258</v>
+        <v>2.5524126978569344</v>
       </c>
       <c r="D178" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B178,тип_интерполяции_)</f>
-        <v>3.5285714285715888</v>
+        <v>1.6110770193887178</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -14228,11 +14228,11 @@
       </c>
       <c r="C179" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B179,тип_интерполяции_)</f>
-        <v>2.5466666666665909</v>
+        <v>2.7499194195236334</v>
       </c>
       <c r="D179" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B179,тип_интерполяции_)</f>
-        <v>3.114285714285876</v>
+        <v>1.2746737703130862</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -14253,11 +14253,11 @@
       </c>
       <c r="C180" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B180,тип_интерполяции_)</f>
-        <v>2.7399999999999238</v>
+        <v>2.9418231383770799</v>
       </c>
       <c r="D180" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B180,тип_интерполяции_)</f>
-        <v>2.7000000000001627</v>
+        <v>0.97299333439179936</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -14278,11 +14278,11 @@
       </c>
       <c r="C181" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B181,тип_интерполяции_)</f>
-        <v>2.9333333333332563</v>
+        <v>3.1273293296660891</v>
       </c>
       <c r="D181" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B181,тип_интерполяции_)</f>
-        <v>2.2857142857144499</v>
+        <v>0.70808568107729597</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -14303,11 +14303,11 @@
       </c>
       <c r="C182" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B182,тип_интерполяции_)</f>
-        <v>3.1266666666665892</v>
+        <v>3.3056434686394751</v>
       </c>
       <c r="D182" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B182,тип_интерполяции_)</f>
-        <v>1.8714285714287366</v>
+        <v>0.48200077982201417</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -14328,11 +14328,11 @@
       </c>
       <c r="C183" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B183,тип_интерполяции_)</f>
-        <v>3.3199999999999221</v>
+        <v>3.4759710305460541</v>
       </c>
       <c r="D183" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B183,тип_интерполяции_)</f>
-        <v>1.4571428571430236</v>
+        <v>0.29678860007839225</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
@@ -14353,11 +14353,11 @@
       </c>
       <c r="C184" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B184,тип_интерполяции_)</f>
-        <v>3.5133333333332546</v>
+        <v>3.6375174906346399</v>
       </c>
       <c r="D184" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B184,тип_интерполяции_)</f>
-        <v>1.0428571428573106</v>
+        <v>0.15449911129886867</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -14378,11 +14378,11 @@
       </c>
       <c r="C185" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B185,тип_интерполяции_)</f>
-        <v>3.7066666666665875</v>
+        <v>3.7894883241540485</v>
       </c>
       <c r="D185" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B185,тип_интерполяции_)</f>
-        <v>0.62857142857159742</v>
+        <v>5.7182282935881651E-2</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -14403,11 +14403,11 @@
       </c>
       <c r="C186" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B186,тип_интерполяции_)</f>
-        <v>3.8999999999999204</v>
+        <v>3.9310890063530941</v>
       </c>
       <c r="D186" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B186,тип_интерполяции_)</f>
-        <v>0.21428571428588439</v>
+        <v>6.8880844418695367E-3</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -14428,11 +14428,11 @@
       </c>
       <c r="C187" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B187,тип_интерполяции_)</f>
-        <v>4.023333333333313</v>
+        <v>4.0615498493447859</v>
       </c>
       <c r="D187" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B187,тип_интерполяции_)</f>
-        <v>0.11666666666656648</v>
+        <v>5.5553692615704642E-3</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -14453,11 +14453,11 @@
       </c>
       <c r="C188" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B188,тип_интерполяции_)</f>
-        <v>4.0716666666666468</v>
+        <v>4.1807214623048408</v>
       </c>
       <c r="D188" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B188,тип_интерполяции_)</f>
-        <v>0.35833333333323247</v>
+        <v>5.2347884745025143E-2</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -14478,11 +14478,11 @@
       </c>
       <c r="C189" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B189,тип_интерполяции_)</f>
-        <v>4.1199999999999797</v>
+        <v>4.2891032903320347</v>
       </c>
       <c r="D189" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B189,тип_интерполяции_)</f>
-        <v>0.59999999999989839</v>
+        <v>0.14352659402357343</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -14503,11 +14503,11 @@
       </c>
       <c r="C190" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B190,тип_интерполяции_)</f>
-        <v>4.1683333333333126</v>
+        <v>4.3872253267819445</v>
       </c>
       <c r="D190" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B190,тип_интерполяции_)</f>
-        <v>0.84166666666656442</v>
+        <v>0.27521579239838007</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -14528,11 +14528,11 @@
       </c>
       <c r="C191" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B191,тип_интерполяции_)</f>
-        <v>4.2166666666666464</v>
+        <v>4.4756175650101433</v>
       </c>
       <c r="D191" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B191,тип_интерполяции_)</f>
-        <v>1.0833333333332305</v>
+        <v>0.44353977517060988</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -14553,11 +14553,11 @@
       </c>
       <c r="C192" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B192,тип_интерполяции_)</f>
-        <v>4.2649999999999793</v>
+        <v>4.5548099983722059</v>
       </c>
       <c r="D192" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B192,тип_интерполяции_)</f>
-        <v>1.3249999999998963</v>
+        <v>0.64462283764142769</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -14578,11 +14578,11 @@
       </c>
       <c r="C193" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B193,тип_интерполяции_)</f>
-        <v>4.3133333333333121</v>
+        <v>4.6253326202237091</v>
       </c>
       <c r="D193" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B193,тип_интерполяции_)</f>
-        <v>1.5666666666665623</v>
+        <v>0.87458927511199813</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -14603,11 +14603,11 @@
       </c>
       <c r="C194" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B194,тип_интерполяции_)</f>
-        <v>4.3616666666666459</v>
+        <v>4.6877154239202268</v>
       </c>
       <c r="D194" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B194,тип_интерполяции_)</f>
-        <v>1.8083333333332283</v>
+        <v>1.1295633828834861</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -14628,11 +14628,11 @@
       </c>
       <c r="C195" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B195,тип_интерполяции_)</f>
-        <v>4.4099999999999788</v>
+        <v>4.742488402817334</v>
       </c>
       <c r="D195" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B195,тип_интерполяции_)</f>
-        <v>2.0499999999998941</v>
+        <v>1.4056694562570562</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -14653,11 +14653,11 @@
       </c>
       <c r="C196" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B196,тип_интерполяции_)</f>
-        <v>4.4583333333333117</v>
+        <v>4.7901815502706064</v>
       </c>
       <c r="D196" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B196,тип_интерполяции_)</f>
-        <v>2.2916666666665604</v>
+        <v>1.6990317905338734</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -14678,11 +14678,11 @@
       </c>
       <c r="C197" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B197,тип_интерполяции_)</f>
-        <v>4.5066666666666455</v>
+        <v>4.8313248596356182</v>
       </c>
       <c r="D197" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B197,тип_интерполяции_)</f>
-        <v>2.5333333333332262</v>
+        <v>2.0057746810151027</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="C198" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B198,тип_интерполяции_)</f>
-        <v>4.5549999999999784</v>
+        <v>4.866448324267945</v>
       </c>
       <c r="D198" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B198,тип_интерполяции_)</f>
-        <v>2.774999999999892</v>
+        <v>2.3220224230019082</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
@@ -14728,11 +14728,11 @@
       </c>
       <c r="C199" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B199,тип_интерполяции_)</f>
-        <v>4.6033333333333113</v>
+        <v>4.896081937523161</v>
       </c>
       <c r="D199" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B199,тип_интерполяции_)</f>
-        <v>3.0166666666665582</v>
+        <v>2.643899311795455</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
@@ -14753,11 +14753,11 @@
       </c>
       <c r="C200" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B200,тип_интерполяции_)</f>
-        <v>4.6516666666666451</v>
+        <v>4.9207556927568419</v>
       </c>
       <c r="D200" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B200,тип_интерполяции_)</f>
-        <v>3.2583333333332241</v>
+        <v>2.967529642696908</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -14778,11 +14778,11 @@
       </c>
       <c r="C201" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B201,тип_интерполяции_)</f>
-        <v>4.699999999999978</v>
+        <v>4.9409995833245617</v>
       </c>
       <c r="D201" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B201,тип_интерполяции_)</f>
-        <v>3.4999999999998899</v>
+        <v>3.289037711007432</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
@@ -14803,11 +14803,11 @@
       </c>
       <c r="C202" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B202,тип_интерполяции_)</f>
-        <v>4.7483333333333109</v>
+        <v>4.9573436025818971</v>
       </c>
       <c r="D202" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B202,тип_интерполяции_)</f>
-        <v>3.7416666666665561</v>
+        <v>3.6045478120281915</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -14828,11 +14828,11 @@
       </c>
       <c r="C203" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B203,тип_интерполяции_)</f>
-        <v>4.7966666666666447</v>
+        <v>4.9703177438844222</v>
       </c>
       <c r="D203" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B203,тип_интерполяции_)</f>
-        <v>3.9833333333332219</v>
+        <v>3.9101842410603518</v>
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
@@ -14853,11 +14853,11 @@
       </c>
       <c r="C204" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B204,тип_интерполяции_)</f>
-        <v>4.8449999999999775</v>
+        <v>4.9804520005877118</v>
       </c>
       <c r="D204" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B204,тип_интерполяции_)</f>
-        <v>4.2249999999998877</v>
+        <v>4.2020712934050772</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
@@ -14878,11 +14878,11 @@
       </c>
       <c r="C205" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B205,тип_интерполяции_)</f>
-        <v>4.8933333333333104</v>
+        <v>4.9882763660473417</v>
       </c>
       <c r="D205" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B205,тип_интерполяции_)</f>
-        <v>4.466666666666554</v>
+        <v>4.4763332643635323</v>
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
@@ -14903,11 +14903,11 @@
       </c>
       <c r="C206" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B206,тип_интерполяции_)</f>
-        <v>4.9416666666666442</v>
+        <v>4.9943208336188851</v>
       </c>
       <c r="D206" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B206,тип_интерполяции_)</f>
-        <v>4.7083333333332202</v>
+        <v>4.7290944492368823</v>
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
@@ -14928,11 +14928,11 @@
       </c>
       <c r="C207" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B207,тип_интерполяции_)</f>
-        <v>4.9899999999999771</v>
+        <v>4.9991153966579196</v>
       </c>
       <c r="D207" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B207,тип_интерполяции_)</f>
-        <v>4.9499999999998856</v>
+        <v>4.956479143326292</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -14953,11 +14953,11 @@
       </c>
       <c r="C208" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B208,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0031459820067177</v>
       </c>
       <c r="D208" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B208,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.1549338889778413</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -14978,11 +14978,11 @@
       </c>
       <c r="C209" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B209,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0065655276661953</v>
       </c>
       <c r="D209" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B209,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3233402900408207</v>
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -15003,11 +15003,11 @@
       </c>
       <c r="C210" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B210,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.009374815946444</v>
       </c>
       <c r="D210" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B210,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.4616926256833329</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -15028,11 +15028,11 @@
       </c>
       <c r="C211" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B211,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0115738468474618</v>
       </c>
       <c r="D211" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B211,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.5699908959053772</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -15053,11 +15053,11 @@
       </c>
       <c r="C212" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B212,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0131626203692496</v>
       </c>
       <c r="D212" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B212,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.6482351007069544</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
@@ -15078,11 +15078,11 @@
       </c>
       <c r="C213" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B213,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0141411365118085</v>
       </c>
       <c r="D213" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B213,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.6964252400880637</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -15103,11 +15103,11 @@
       </c>
       <c r="C214" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B214,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0145093952751374</v>
       </c>
       <c r="D214" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B214,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.7145613140487059</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
@@ -15128,11 +15128,11 @@
       </c>
       <c r="C215" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B215,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0142673966592364</v>
       </c>
       <c r="D215" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B215,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.7026433225888802</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
@@ -15153,11 +15153,11 @@
       </c>
       <c r="C216" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B216,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0134151406641054</v>
       </c>
       <c r="D216" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B216,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.6606712657085865</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
@@ -15178,11 +15178,11 @@
       </c>
       <c r="C217" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B217,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0119526272897446</v>
       </c>
       <c r="D217" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B217,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.5886451434078257</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
@@ -15203,11 +15203,11 @@
       </c>
       <c r="C218" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B218,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0098798565361538</v>
       </c>
       <c r="D218" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B218,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.486564955686597</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
@@ -15228,11 +15228,11 @@
       </c>
       <c r="C219" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B219,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.007196828403333</v>
       </c>
       <c r="D219" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B219,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3544307025449012</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
@@ -15253,11 +15253,11 @@
       </c>
       <c r="C220" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B220,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0039035428912824</v>
       </c>
       <c r="D220" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B220,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.1922423839827374</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
@@ -15278,11 +15278,11 @@
       </c>
       <c r="C221" s="16">
         <f>[1]!crv_interpolation(x_,fx_,B221,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="D221" s="16">
         <f>[1]!crv_interpolation(x2_,gx2_,B221,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0000000000001066</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
